--- a/Посещаемость/Октябрь.xlsx
+++ b/Посещаемость/Октябрь.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\Group10_WEB\Посещаемость\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E44DD0-5546-496D-A0F8-AC5B9ED3E71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7D6DA3-FDE0-407A-B540-27152CF9E5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="686" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,8 +42,8 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Февраль!$4:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Январь!$4:$6</definedName>
     <definedName name="Заголовок_отсутствие_сотрудников">Январь!$B$1</definedName>
-    <definedName name="Заголовок1">Январь[[#Headers],[Имя сотрудника]]</definedName>
-    <definedName name="Заголовок10">Октябрь[[#Headers],[Имя сотрудника]]</definedName>
+    <definedName name="Заголовок1">Январь[[#Headers],[Студент]]</definedName>
+    <definedName name="Заголовок10">Октябрь[[#Headers],[Студент]]</definedName>
     <definedName name="Заголовок11">Ноябрь[[#Headers],[Имя сотрудника]]</definedName>
     <definedName name="Заголовок12">Декабрь[[#Headers],[Имя сотрудника]]</definedName>
     <definedName name="Заголовок2">Февраль[[#Headers],[Имя сотрудника]]</definedName>
@@ -80,7 +80,6 @@
     <definedName name="СобствОбозн2">Январь!$U$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -93,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -362,7 +361,7 @@
     <t>График отсутствия студентов</t>
   </si>
   <si>
-    <t>y</t>
+    <t>Студент</t>
   </si>
 </sst>
 </file>
@@ -1075,147 +1074,6 @@
   </cellStyles>
   <dxfs count="871">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3964,6 +3822,147 @@
           <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
@@ -15809,7 +15808,7 @@
     <filterColumn colId="32" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="33">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="849" totalsRowDxfId="848" dataCellStyle="Сотрудник">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Студент" totalsRowFunction="custom" dataDxfId="849" totalsRowDxfId="848" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="1" totalsRowFunction="custom" dataDxfId="847" totalsRowDxfId="846">
@@ -15921,39 +15920,39 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="185" dataDxfId="184" totalsRowCellStyle="Стиль 1">
   <tableColumns count="33">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Имя сотрудника" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="33" dataCellStyle="Сотрудник" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="1" dataDxfId="32" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="2" dataDxfId="31" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="3" dataDxfId="30" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="4" dataDxfId="29" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="5" dataDxfId="28" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="6" dataDxfId="27" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="7" dataDxfId="26" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="8" dataDxfId="25" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="9" dataDxfId="24" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="10" dataDxfId="23" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="11" dataDxfId="22" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="12" dataDxfId="21" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="13" dataDxfId="20" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="14" dataDxfId="19" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="15" dataDxfId="18" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="16" dataDxfId="17" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="17" dataDxfId="16" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0900-000013000000}" name="18" dataDxfId="15" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="19" dataDxfId="14" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0900-000015000000}" name="20" dataDxfId="13" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0900-000016000000}" name="21" dataDxfId="12" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0900-000017000000}" name="22" dataDxfId="11" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0900-000018000000}" name="23" dataDxfId="10" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0900-000019000000}" name="24" dataDxfId="9" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0900-00001A000000}" name="25" dataDxfId="8" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0900-00001B000000}" name="26" dataDxfId="7" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0900-00001C000000}" name="27" dataDxfId="6" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0900-00001D000000}" name="28" dataDxfId="5" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0900-00001E000000}" name="29" dataDxfId="4" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0900-00001F000000}" name="30" dataDxfId="3" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0900-000020000000}" name="31" dataDxfId="2" totalsRowCellStyle="Стиль 1"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0900-000021000000}" name="Всего дней" dataDxfId="1" totalsRowDxfId="0" totalsRowCellStyle="Стиль 1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="183" dataCellStyle="Сотрудник" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="1" dataDxfId="182" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="2" dataDxfId="181" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="3" dataDxfId="180" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="4" dataDxfId="179" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="5" dataDxfId="178" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="6" dataDxfId="177" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="7" dataDxfId="176" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="8" dataDxfId="175" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="9" dataDxfId="174" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="10" dataDxfId="173" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="11" dataDxfId="172" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="12" dataDxfId="171" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="13" dataDxfId="170" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="14" dataDxfId="169" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="15" dataDxfId="168" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="16" dataDxfId="167" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="17" dataDxfId="166" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0900-000013000000}" name="18" dataDxfId="165" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0900-000014000000}" name="19" dataDxfId="164" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0900-000015000000}" name="20" dataDxfId="163" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0900-000016000000}" name="21" dataDxfId="162" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0900-000017000000}" name="22" dataDxfId="161" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0900-000018000000}" name="23" dataDxfId="160" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0900-000019000000}" name="24" dataDxfId="159" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0900-00001A000000}" name="25" dataDxfId="158" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0900-00001B000000}" name="26" dataDxfId="157" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0900-00001C000000}" name="27" dataDxfId="156" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0900-00001D000000}" name="28" dataDxfId="155" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0900-00001E000000}" name="29" dataDxfId="154" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0900-00001F000000}" name="30" dataDxfId="153" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0900-000020000000}" name="31" dataDxfId="152" totalsRowCellStyle="Стиль 1"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0900-000021000000}" name="Всего дней" dataDxfId="151" totalsRowDxfId="150" totalsRowCellStyle="Стиль 1">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15967,43 +15966,43 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="178" dataDxfId="177" totalsRowDxfId="176">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="144" dataDxfId="143" totalsRowDxfId="142">
   <tableColumns count="33">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="175" totalsRowDxfId="174" dataCellStyle="Сотрудник">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="140" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="1" totalsRowFunction="count" dataDxfId="173" totalsRowDxfId="172"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="2" totalsRowFunction="count" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="3" totalsRowFunction="count" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="4" totalsRowFunction="count" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="5" totalsRowFunction="count" dataDxfId="165" totalsRowDxfId="164"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="6" totalsRowFunction="count" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="7" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="8" totalsRowFunction="count" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="9" totalsRowFunction="count" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="10" totalsRowFunction="count" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="11" totalsRowFunction="count" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0A00-00000D000000}" name="12" totalsRowFunction="count" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0A00-00000E000000}" name="13" totalsRowFunction="count" dataDxfId="149" totalsRowDxfId="148"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0A00-00000F000000}" name="14" totalsRowFunction="count" dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0A00-000010000000}" name="15" totalsRowFunction="count" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0A00-000011000000}" name="16" totalsRowFunction="count" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0A00-000012000000}" name="17" totalsRowFunction="count" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0A00-000013000000}" name="18" totalsRowFunction="count" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0A00-000014000000}" name="19" totalsRowFunction="count" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0A00-000015000000}" name="20" totalsRowFunction="count" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0A00-000016000000}" name="21" totalsRowFunction="count" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0A00-000017000000}" name="22" totalsRowFunction="count" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0A00-000018000000}" name="23" totalsRowFunction="count" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0A00-000019000000}" name="24" totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0A00-00001A000000}" name="25" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0A00-00001B000000}" name="26" totalsRowFunction="count" dataDxfId="123" totalsRowDxfId="122"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0A00-00001C000000}" name="27" totalsRowFunction="count" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0A00-00001D000000}" name="28" totalsRowFunction="count" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0A00-00001E000000}" name="29" totalsRowFunction="count" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0A00-00001F000000}" name="30" totalsRowFunction="count" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0A00-000020000000}" name=" " totalsRowFunction="count" dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0A00-000021000000}" name="Всего дней" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="110">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="1" totalsRowFunction="count" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="2" totalsRowFunction="count" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="3" totalsRowFunction="count" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="4" totalsRowFunction="count" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="5" totalsRowFunction="count" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="6" totalsRowFunction="count" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="7" totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="8" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="9" totalsRowFunction="count" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="10" totalsRowFunction="count" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="11" totalsRowFunction="count" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0A00-00000D000000}" name="12" totalsRowFunction="count" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0A00-00000E000000}" name="13" totalsRowFunction="count" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0A00-00000F000000}" name="14" totalsRowFunction="count" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0A00-000010000000}" name="15" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0A00-000011000000}" name="16" totalsRowFunction="count" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0A00-000012000000}" name="17" totalsRowFunction="count" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0A00-000013000000}" name="18" totalsRowFunction="count" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0A00-000014000000}" name="19" totalsRowFunction="count" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0A00-000015000000}" name="20" totalsRowFunction="count" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0A00-000016000000}" name="21" totalsRowFunction="count" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0A00-000017000000}" name="22" totalsRowFunction="count" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0A00-000018000000}" name="23" totalsRowFunction="count" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0A00-000019000000}" name="24" totalsRowFunction="count" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0A00-00001A000000}" name="25" totalsRowFunction="count" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0A00-00001B000000}" name="26" totalsRowFunction="count" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0A00-00001C000000}" name="27" totalsRowFunction="count" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0A00-00001D000000}" name="28" totalsRowFunction="count" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0A00-00001E000000}" name="29" totalsRowFunction="count" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0A00-00001F000000}" name="30" totalsRowFunction="count" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0A00-000020000000}" name=" " totalsRowFunction="count" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0A00-000021000000}" name="Всего дней" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="76">
       <calculatedColumnFormula>COUNTA(Ноябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16017,43 +16016,43 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Декабрь" displayName="Декабрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="104" dataDxfId="103" totalsRowDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Декабрь" displayName="Декабрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="70" dataDxfId="69" totalsRowDxfId="68">
   <tableColumns count="33">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="100" dataCellStyle="Сотрудник">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="1" totalsRowFunction="count" dataDxfId="99" totalsRowDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="2" totalsRowFunction="count" dataDxfId="97" totalsRowDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="3" totalsRowFunction="count" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="4" totalsRowFunction="count" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="5" totalsRowFunction="count" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="6" totalsRowFunction="count" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="7" totalsRowFunction="count" dataDxfId="87" totalsRowDxfId="86"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0B00-000009000000}" name="8" totalsRowFunction="count" dataDxfId="85" totalsRowDxfId="84"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0B00-00000A000000}" name="9" totalsRowFunction="count" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0B00-00000B000000}" name="10" totalsRowFunction="count" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0B00-00000C000000}" name="11" totalsRowFunction="count" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0B00-00000D000000}" name="12" totalsRowFunction="count" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0B00-00000E000000}" name="13" totalsRowFunction="count" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0B00-00000F000000}" name="14" totalsRowFunction="count" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0B00-000010000000}" name="15" totalsRowFunction="count" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0B00-000011000000}" name="16" totalsRowFunction="count" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0B00-000012000000}" name="17" totalsRowFunction="count" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0B00-000013000000}" name="18" totalsRowFunction="count" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0B00-000014000000}" name="19" totalsRowFunction="count" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0B00-000015000000}" name="20" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0B00-000016000000}" name="21" totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0B00-000017000000}" name="22" totalsRowFunction="count" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0B00-000018000000}" name="23" totalsRowFunction="count" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0B00-000019000000}" name="24" totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0B00-00001A000000}" name="25" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0B00-00001B000000}" name="26" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0B00-00001C000000}" name="27" totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0B00-00001D000000}" name="28" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0B00-00001E000000}" name="29" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0B00-00001F000000}" name="30" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0B00-000020000000}" name="31" totalsRowFunction="count" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0B00-000021000000}" name="Всего дней" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="1" totalsRowFunction="count" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="2" totalsRowFunction="count" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="3" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="4" totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="5" totalsRowFunction="count" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="6" totalsRowFunction="count" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="7" totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0B00-000009000000}" name="8" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0B00-00000A000000}" name="9" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0B00-00000B000000}" name="10" totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0B00-00000C000000}" name="11" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0B00-00000D000000}" name="12" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0B00-00000E000000}" name="13" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0B00-00000F000000}" name="14" totalsRowFunction="count" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0B00-000010000000}" name="15" totalsRowFunction="count" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0B00-000011000000}" name="16" totalsRowFunction="count" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0B00-000012000000}" name="17" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0B00-000013000000}" name="18" totalsRowFunction="count" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0B00-000014000000}" name="19" totalsRowFunction="count" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0B00-000015000000}" name="20" totalsRowFunction="count" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0B00-000016000000}" name="21" totalsRowFunction="count" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0B00-000017000000}" name="22" totalsRowFunction="count" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0B00-000018000000}" name="23" totalsRowFunction="count" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0B00-000019000000}" name="24" totalsRowFunction="count" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0B00-00001A000000}" name="25" totalsRowFunction="count" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0B00-00001B000000}" name="26" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0B00-00001C000000}" name="27" totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0B00-00001D000000}" name="28" totalsRowFunction="count" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0B00-00001E000000}" name="29" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0B00-00001F000000}" name="30" totalsRowFunction="count" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0B00-000020000000}" name="31" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0B00-000021000000}" name="Всего дней" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>COUNTA(Декабрь[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16067,10 +16066,10 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="35" dataCellStyle="Сотрудник">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="1" dataCellStyle="Сотрудник">
   <autoFilter ref="B3:B19" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Имена сотрудников" dataDxfId="34" dataCellStyle="Сотрудник"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Имена сотрудников" dataDxfId="0" dataCellStyle="Сотрудник"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -16717,7 +16716,7 @@
   <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16956,7 +16955,7 @@
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -17641,8 +17640,8 @@
   </sheetPr>
   <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17871,7 +17870,7 @@
     </row>
     <row r="6" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -17991,39 +17990,17 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -18810,47 +18787,47 @@
       </c>
       <c r="T26" s="25">
         <f>SUBTOTAL(103,Октябрь[18])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="25">
         <f>SUBTOTAL(103,Октябрь[19])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="25">
         <f>SUBTOTAL(103,Октябрь[20])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W26" s="25">
         <f>SUBTOTAL(103,Октябрь[21])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="25">
         <f>SUBTOTAL(103,Октябрь[22])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="25">
         <f>SUBTOTAL(103,Октябрь[23])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z26" s="25">
         <f>SUBTOTAL(103,Октябрь[24])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="25">
         <f>SUBTOTAL(103,Октябрь[25])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="25">
         <f>SUBTOTAL(103,Октябрь[26])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="25">
         <f>SUBTOTAL(103,Октябрь[27])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="25">
         <f>SUBTOTAL(103,Октябрь[28])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="25">
         <f>SUBTOTAL(103,Октябрь[29])</f>
@@ -20161,19 +20138,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG24">
-    <cfRule type="expression" dxfId="183" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20930,19 +20907,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="109" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Посещаемость/Октябрь.xlsx
+++ b/Посещаемость/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="91">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -18599,8 +18599,8 @@
   </sheetPr>
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="68" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="68" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19028,7 +19028,9 @@
       <c r="W9" s="1"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
+      <c r="Z9" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
@@ -19038,7 +19040,7 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="29">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19112,7 +19114,9 @@
       <c r="W11" s="1"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
+      <c r="Z11" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
@@ -19122,7 +19126,7 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="29">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19622,7 +19626,9 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
+      <c r="Z23" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -19632,7 +19638,7 @@
       <c r="AG23" s="1"/>
       <c r="AH23" s="30">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19776,7 +19782,7 @@
       </c>
       <c r="Z25" s="39">
         <f>SUBTOTAL(103,Ноябрь[24])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA25" s="39">
         <f>SUBTOTAL(103,Ноябрь[25])</f>
@@ -19808,7 +19814,7 @@
       </c>
       <c r="AH25" s="40">
         <f>SUBTOTAL(109,Ноябрь[Всего дней])</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Посещаемость/Октябрь.xlsx
+++ b/Посещаемость/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="91">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -1021,12 +1021,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="21" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1035,6 +1029,12 @@
     </xf>
     <xf numFmtId="166" fontId="20" fillId="33" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="21" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2307,11 +2307,1189 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0;0;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -2365,1763 +3543,15 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0;0;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -4294,6 +3724,56 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4442,6 +3922,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -5613,6 +5143,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6783,6 +6363,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -7953,6 +7583,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -9124,6 +8804,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -10294,6 +10024,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -11465,6 +11245,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -12635,6 +12465,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -13801,6 +13681,76 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -15159,6 +15109,56 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -15423,7 +15423,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="857" dataDxfId="856" totalsRowDxfId="855">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="852" dataDxfId="851" totalsRowDxfId="850">
   <autoFilter ref="B6:AH23">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -15460,103 +15460,103 @@
     <filterColumn colId="32" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowFunction="custom" dataDxfId="854" totalsRowDxfId="853" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Студент" totalsRowFunction="custom" dataDxfId="849" totalsRowDxfId="848" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="custom" dataDxfId="852" totalsRowDxfId="851">
+    <tableColumn id="2" name="1" totalsRowFunction="custom" dataDxfId="847" totalsRowDxfId="846">
       <totalsRowFormula>SUBTOTAL(103,Январь!$C$7:$C$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="2" totalsRowFunction="custom" dataDxfId="850" totalsRowDxfId="849">
+    <tableColumn id="3" name="2" totalsRowFunction="custom" dataDxfId="845" totalsRowDxfId="844">
       <totalsRowFormula>SUBTOTAL(103,Январь!$D$7:$D$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="3" totalsRowFunction="custom" dataDxfId="848" totalsRowDxfId="847">
+    <tableColumn id="4" name="3" totalsRowFunction="custom" dataDxfId="843" totalsRowDxfId="842">
       <totalsRowFormula>SUBTOTAL(103,Январь!$E$7:$E$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="4" totalsRowFunction="custom" dataDxfId="846" totalsRowDxfId="845">
+    <tableColumn id="5" name="4" totalsRowFunction="custom" dataDxfId="841" totalsRowDxfId="840">
       <totalsRowFormula>SUBTOTAL(103,Январь!$F$7:$F$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="5" totalsRowFunction="custom" totalsRowDxfId="844">
+    <tableColumn id="6" name="5" totalsRowFunction="custom" totalsRowDxfId="839">
       <totalsRowFormula>SUBTOTAL(103,Январь!$G$7:$G$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="6" totalsRowFunction="custom" dataDxfId="843" totalsRowDxfId="842">
+    <tableColumn id="7" name="6" totalsRowFunction="custom" dataDxfId="838" totalsRowDxfId="837">
       <totalsRowFormula>SUBTOTAL(103,Январь!$H$7:$H$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="7" totalsRowFunction="custom" dataDxfId="841" totalsRowDxfId="840">
+    <tableColumn id="8" name="7" totalsRowFunction="custom" dataDxfId="836" totalsRowDxfId="835">
       <totalsRowFormula>SUBTOTAL(103,Январь!$I$7:$I$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="8" totalsRowFunction="custom" dataDxfId="839" totalsRowDxfId="838">
+    <tableColumn id="9" name="8" totalsRowFunction="custom" dataDxfId="834" totalsRowDxfId="833">
       <totalsRowFormula>SUBTOTAL(103,Январь!$J$7:$J$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="9" totalsRowFunction="custom" dataDxfId="837" totalsRowDxfId="836">
+    <tableColumn id="10" name="9" totalsRowFunction="custom" dataDxfId="832" totalsRowDxfId="831">
       <totalsRowFormula>SUBTOTAL(103,Январь!$K$7:$K$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="10" totalsRowFunction="custom" dataDxfId="835" totalsRowDxfId="834">
+    <tableColumn id="11" name="10" totalsRowFunction="custom" dataDxfId="830" totalsRowDxfId="829">
       <totalsRowFormula>SUBTOTAL(103,Январь!$L$7:$L$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="11" totalsRowFunction="custom" dataDxfId="833" totalsRowDxfId="832">
+    <tableColumn id="12" name="11" totalsRowFunction="custom" dataDxfId="828" totalsRowDxfId="827">
       <totalsRowFormula>SUBTOTAL(103,Январь!$M$7:$M$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="12" totalsRowFunction="custom" dataDxfId="831" totalsRowDxfId="830">
+    <tableColumn id="13" name="12" totalsRowFunction="custom" dataDxfId="826" totalsRowDxfId="825">
       <totalsRowFormula>SUBTOTAL(103,Январь!$N$7:$N$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" name="13" totalsRowFunction="custom" dataDxfId="829" totalsRowDxfId="828">
+    <tableColumn id="14" name="13" totalsRowFunction="custom" dataDxfId="824" totalsRowDxfId="823">
       <totalsRowFormula>SUBTOTAL(103,Январь!$O$7:$O$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" name="14" totalsRowFunction="custom" dataDxfId="827" totalsRowDxfId="826">
+    <tableColumn id="15" name="14" totalsRowFunction="custom" dataDxfId="822" totalsRowDxfId="821">
       <totalsRowFormula>SUBTOTAL(103,Январь!$P$7:$P$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="15" totalsRowFunction="custom" dataDxfId="825" totalsRowDxfId="824">
+    <tableColumn id="16" name="15" totalsRowFunction="custom" dataDxfId="820" totalsRowDxfId="819">
       <totalsRowFormula>SUBTOTAL(103,Январь!$Q$7:$Q$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" name="16" totalsRowFunction="custom" dataDxfId="823" totalsRowDxfId="822">
+    <tableColumn id="17" name="16" totalsRowFunction="custom" dataDxfId="818" totalsRowDxfId="817">
       <totalsRowFormula>SUBTOTAL(103,Январь!$R$7:$R$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="17" totalsRowFunction="custom" dataDxfId="821" totalsRowDxfId="820">
+    <tableColumn id="18" name="17" totalsRowFunction="custom" dataDxfId="816" totalsRowDxfId="815">
       <totalsRowFormula>SUBTOTAL(103,Январь!$S$7:$S$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" name="18" totalsRowFunction="custom" dataDxfId="819" totalsRowDxfId="818">
+    <tableColumn id="19" name="18" totalsRowFunction="custom" dataDxfId="814" totalsRowDxfId="813">
       <totalsRowFormula>SUBTOTAL(103,Январь!$T$7:$T$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" name="19" totalsRowFunction="custom" dataDxfId="817" totalsRowDxfId="816">
+    <tableColumn id="20" name="19" totalsRowFunction="custom" dataDxfId="812" totalsRowDxfId="811">
       <totalsRowFormula>SUBTOTAL(103,Январь!$U$7:$U$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" name="20" totalsRowFunction="custom" dataDxfId="815" totalsRowDxfId="814">
+    <tableColumn id="21" name="20" totalsRowFunction="custom" dataDxfId="810" totalsRowDxfId="809">
       <totalsRowFormula>SUBTOTAL(103,Январь!$V$7:$V$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" name="21" totalsRowFunction="custom" dataDxfId="813" totalsRowDxfId="812">
+    <tableColumn id="22" name="21" totalsRowFunction="custom" dataDxfId="808" totalsRowDxfId="807">
       <totalsRowFormula>SUBTOTAL(103,Январь!$W$7:$W$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" name="22" totalsRowFunction="custom" dataDxfId="811" totalsRowDxfId="810">
+    <tableColumn id="23" name="22" totalsRowFunction="custom" dataDxfId="806" totalsRowDxfId="805">
       <totalsRowFormula>SUBTOTAL(103,Январь!$X$7:$X$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="23" totalsRowFunction="custom" dataDxfId="809" totalsRowDxfId="808">
+    <tableColumn id="24" name="23" totalsRowFunction="custom" dataDxfId="804" totalsRowDxfId="803">
       <totalsRowFormula>SUBTOTAL(103,Январь!$Y$7:$Y$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" name="24" totalsRowFunction="custom" dataDxfId="807" totalsRowDxfId="806">
+    <tableColumn id="25" name="24" totalsRowFunction="custom" dataDxfId="802" totalsRowDxfId="801">
       <totalsRowFormula>SUBTOTAL(103,Январь!$Z$7:$Z$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" name="25" totalsRowFunction="custom" dataDxfId="805" totalsRowDxfId="804">
+    <tableColumn id="26" name="25" totalsRowFunction="custom" dataDxfId="800" totalsRowDxfId="799">
       <totalsRowFormula>SUBTOTAL(103,Январь!$AA$7:$AA$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" name="26" totalsRowFunction="custom" dataDxfId="803" totalsRowDxfId="802">
+    <tableColumn id="27" name="26" totalsRowFunction="custom" dataDxfId="798" totalsRowDxfId="797">
       <totalsRowFormula>SUBTOTAL(103,Январь!$AB$7:$AB$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="28" name="27" totalsRowFunction="custom" dataDxfId="801" totalsRowDxfId="800">
+    <tableColumn id="28" name="27" totalsRowFunction="custom" dataDxfId="796" totalsRowDxfId="795">
       <totalsRowFormula>SUBTOTAL(103,Январь!$AC$7:$AC$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" name="28" totalsRowFunction="custom" dataDxfId="799" totalsRowDxfId="798">
+    <tableColumn id="29" name="28" totalsRowFunction="custom" dataDxfId="794" totalsRowDxfId="793">
       <totalsRowFormula>SUBTOTAL(103,Январь!$AD$7:$AD$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" name="29" totalsRowFunction="custom" dataDxfId="797" totalsRowDxfId="796">
+    <tableColumn id="30" name="29" totalsRowFunction="custom" dataDxfId="792" totalsRowDxfId="791">
       <totalsRowFormula>SUBTOTAL(103,Январь!$AE$7:$AE$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" name="30" totalsRowFunction="custom" dataDxfId="795" totalsRowDxfId="794">
+    <tableColumn id="31" name="30" totalsRowFunction="custom" dataDxfId="790" totalsRowDxfId="789">
       <totalsRowFormula>SUBTOTAL(103,Январь!$AF$7:$AF$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" name="31" totalsRowFunction="custom" dataDxfId="793" totalsRowDxfId="792">
+    <tableColumn id="32" name="31" totalsRowFunction="custom" dataDxfId="788" totalsRowDxfId="787">
       <totalsRowFormula>SUBTOTAL(103,Январь!$AG$7:$AG$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="791" totalsRowDxfId="790">
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="786" totalsRowDxfId="785">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15570,41 +15570,41 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="237" dataDxfId="236" totalsRowCellStyle="Стиль 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="185" dataDxfId="184" totalsRowCellStyle="Стиль 1">
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="235" dataCellStyle="Стиль 1"/>
-    <tableColumn id="2" name="1" dataDxfId="234" dataCellStyle="Стиль 1"/>
-    <tableColumn id="3" name="2" dataDxfId="233" dataCellStyle="Стиль 1"/>
-    <tableColumn id="4" name="3" dataDxfId="232" dataCellStyle="Стиль 1"/>
-    <tableColumn id="5" name="4" dataDxfId="231" dataCellStyle="Стиль 1"/>
-    <tableColumn id="6" name="5" dataDxfId="230" dataCellStyle="Стиль 1"/>
-    <tableColumn id="7" name="6" dataDxfId="229" dataCellStyle="Стиль 1"/>
-    <tableColumn id="8" name="7" dataDxfId="228" dataCellStyle="Стиль 1"/>
-    <tableColumn id="9" name="8" dataDxfId="227" dataCellStyle="Стиль 1"/>
-    <tableColumn id="10" name="9" dataDxfId="226" dataCellStyle="Стиль 1"/>
-    <tableColumn id="11" name="10" dataDxfId="225" dataCellStyle="Стиль 1"/>
-    <tableColumn id="12" name="11" dataDxfId="224" dataCellStyle="Стиль 1"/>
-    <tableColumn id="13" name="12" dataDxfId="223" dataCellStyle="Стиль 1"/>
-    <tableColumn id="14" name="13" dataDxfId="222" dataCellStyle="Стиль 1"/>
-    <tableColumn id="15" name="14" dataDxfId="221" dataCellStyle="Стиль 1"/>
-    <tableColumn id="16" name="15" dataDxfId="220" dataCellStyle="Стиль 1"/>
-    <tableColumn id="17" name="16" dataDxfId="219" dataCellStyle="Стиль 1"/>
-    <tableColumn id="18" name="17" dataDxfId="218" dataCellStyle="Стиль 1"/>
-    <tableColumn id="19" name="18" dataDxfId="217" dataCellStyle="Стиль 1"/>
-    <tableColumn id="20" name="19" dataDxfId="216" dataCellStyle="Стиль 1"/>
-    <tableColumn id="21" name="20" dataDxfId="215" dataCellStyle="Стиль 1"/>
-    <tableColumn id="22" name="21" dataDxfId="214" dataCellStyle="Стиль 1"/>
-    <tableColumn id="23" name="22" dataDxfId="213" dataCellStyle="Стиль 1"/>
-    <tableColumn id="24" name="23" dataDxfId="212" dataCellStyle="Стиль 1"/>
-    <tableColumn id="25" name="24" dataDxfId="211" dataCellStyle="Стиль 1"/>
-    <tableColumn id="26" name="25" dataDxfId="210" dataCellStyle="Стиль 1"/>
-    <tableColumn id="27" name="26" dataDxfId="209" dataCellStyle="Стиль 1"/>
-    <tableColumn id="28" name="27" dataDxfId="208" dataCellStyle="Стиль 1"/>
-    <tableColumn id="29" name="28" dataDxfId="207" dataCellStyle="Стиль 1"/>
-    <tableColumn id="30" name="29" dataDxfId="206" dataCellStyle="Стиль 1"/>
-    <tableColumn id="31" name="30" dataDxfId="205" dataCellStyle="Стиль 1"/>
-    <tableColumn id="32" name="31" dataDxfId="204" dataCellStyle="Стиль 1"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="203" totalsRowDxfId="202" dataCellStyle="Стиль 1">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="183" dataCellStyle="Стиль 1"/>
+    <tableColumn id="2" name="1" dataDxfId="182" dataCellStyle="Стиль 1"/>
+    <tableColumn id="3" name="2" dataDxfId="181" dataCellStyle="Стиль 1"/>
+    <tableColumn id="4" name="3" dataDxfId="180" dataCellStyle="Стиль 1"/>
+    <tableColumn id="5" name="4" dataDxfId="179" dataCellStyle="Стиль 1"/>
+    <tableColumn id="6" name="5" dataDxfId="178" dataCellStyle="Стиль 1"/>
+    <tableColumn id="7" name="6" dataDxfId="177" dataCellStyle="Стиль 1"/>
+    <tableColumn id="8" name="7" dataDxfId="176" dataCellStyle="Стиль 1"/>
+    <tableColumn id="9" name="8" dataDxfId="175" dataCellStyle="Стиль 1"/>
+    <tableColumn id="10" name="9" dataDxfId="174" dataCellStyle="Стиль 1"/>
+    <tableColumn id="11" name="10" dataDxfId="173" dataCellStyle="Стиль 1"/>
+    <tableColumn id="12" name="11" dataDxfId="172" dataCellStyle="Стиль 1"/>
+    <tableColumn id="13" name="12" dataDxfId="171" dataCellStyle="Стиль 1"/>
+    <tableColumn id="14" name="13" dataDxfId="170" dataCellStyle="Стиль 1"/>
+    <tableColumn id="15" name="14" dataDxfId="169" dataCellStyle="Стиль 1"/>
+    <tableColumn id="16" name="15" dataDxfId="168" dataCellStyle="Стиль 1"/>
+    <tableColumn id="17" name="16" dataDxfId="167" dataCellStyle="Стиль 1"/>
+    <tableColumn id="18" name="17" dataDxfId="166" dataCellStyle="Стиль 1"/>
+    <tableColumn id="19" name="18" dataDxfId="165" dataCellStyle="Стиль 1"/>
+    <tableColumn id="20" name="19" dataDxfId="164" dataCellStyle="Стиль 1"/>
+    <tableColumn id="21" name="20" dataDxfId="163" dataCellStyle="Стиль 1"/>
+    <tableColumn id="22" name="21" dataDxfId="162" dataCellStyle="Стиль 1"/>
+    <tableColumn id="23" name="22" dataDxfId="161" dataCellStyle="Стиль 1"/>
+    <tableColumn id="24" name="23" dataDxfId="160" dataCellStyle="Стиль 1"/>
+    <tableColumn id="25" name="24" dataDxfId="159" dataCellStyle="Стиль 1"/>
+    <tableColumn id="26" name="25" dataDxfId="158" dataCellStyle="Стиль 1"/>
+    <tableColumn id="27" name="26" dataDxfId="157" dataCellStyle="Стиль 1"/>
+    <tableColumn id="28" name="27" dataDxfId="156" dataCellStyle="Стиль 1"/>
+    <tableColumn id="29" name="28" dataDxfId="155" dataCellStyle="Стиль 1"/>
+    <tableColumn id="30" name="29" dataDxfId="154" dataCellStyle="Стиль 1"/>
+    <tableColumn id="31" name="30" dataDxfId="153" dataCellStyle="Стиль 1"/>
+    <tableColumn id="32" name="31" dataDxfId="152" dataCellStyle="Стиль 1"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="151" totalsRowDxfId="150" dataCellStyle="Стиль 1">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15618,43 +15618,43 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="201" dataDxfId="200" totalsRowDxfId="199">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="144" dataDxfId="143" totalsRowDxfId="142">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="198" totalsRowDxfId="32" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="32" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="197" totalsRowDxfId="31"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="196" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="195" totalsRowDxfId="29"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="194" totalsRowDxfId="28"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="193" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="192" totalsRowDxfId="26"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="191" totalsRowDxfId="25"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="190" totalsRowDxfId="24"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="189" totalsRowDxfId="23"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="188" totalsRowDxfId="22"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="187" totalsRowDxfId="21"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="186" totalsRowDxfId="20"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="185" totalsRowDxfId="19"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="184" totalsRowDxfId="18"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="183" totalsRowDxfId="17"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="182" totalsRowDxfId="16"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="181" totalsRowDxfId="15"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="180" totalsRowDxfId="14"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="179" totalsRowDxfId="13"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="12"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="34" totalsRowDxfId="11"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="178" totalsRowDxfId="10"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="177" totalsRowDxfId="9"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="176" totalsRowDxfId="8"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="175" totalsRowDxfId="7"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="174" totalsRowDxfId="6"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="173" totalsRowDxfId="5"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="172" totalsRowDxfId="4"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="171" totalsRowDxfId="3"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="170" totalsRowDxfId="2"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="169" totalsRowDxfId="1"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="168" totalsRowDxfId="0">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="140" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="139" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="138" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="137" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="136" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="135" totalsRowDxfId="26"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="134" totalsRowDxfId="25"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="133" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="132" totalsRowDxfId="23"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="131" totalsRowDxfId="22"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="130" totalsRowDxfId="21"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="129" totalsRowDxfId="20"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="128" totalsRowDxfId="19"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="18"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="126" totalsRowDxfId="17"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="16"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="124" totalsRowDxfId="15"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="123" totalsRowDxfId="14"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="122" totalsRowDxfId="13"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="121" totalsRowDxfId="12"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="120" totalsRowDxfId="11"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="119" totalsRowDxfId="10"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="118" totalsRowDxfId="9"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="117" totalsRowDxfId="8"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="116" totalsRowDxfId="7"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="115" totalsRowDxfId="6"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="114" totalsRowDxfId="5"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="113" totalsRowDxfId="4"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="112" totalsRowDxfId="3"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="2"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="110" totalsRowDxfId="1"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="0">
       <calculatedColumnFormula>COUNTA(Ноябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15668,43 +15668,43 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="167" dataDxfId="166" totalsRowDxfId="165">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="103" dataDxfId="102" totalsRowDxfId="101">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="164" totalsRowDxfId="163" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="162" totalsRowDxfId="161"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="160" totalsRowDxfId="159"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="158" totalsRowDxfId="157"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="156" totalsRowDxfId="155"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="154" totalsRowDxfId="153"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="152" totalsRowDxfId="151"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="150" totalsRowDxfId="149"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="148" totalsRowDxfId="147"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="146" totalsRowDxfId="145"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="144" totalsRowDxfId="143"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="142" totalsRowDxfId="141"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="140" totalsRowDxfId="139"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="136" totalsRowDxfId="135"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="134" totalsRowDxfId="133"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="132" totalsRowDxfId="131"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="130" totalsRowDxfId="129"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="99">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>COUNTA(Декабрь[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15718,10 +15718,10 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="98" dataCellStyle="Сотрудник">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="34" dataCellStyle="Сотрудник">
   <autoFilter ref="B3:B19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Имена сотрудников" dataDxfId="97" dataCellStyle="Сотрудник"/>
+    <tableColumn id="1" name="Имена сотрудников" dataDxfId="33" dataCellStyle="Сотрудник"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -15733,43 +15733,43 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="789" dataDxfId="788" totalsRowDxfId="787">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="777" dataDxfId="776" totalsRowDxfId="775">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="786" totalsRowDxfId="785" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="774" totalsRowDxfId="773" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="784" totalsRowDxfId="783"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="782" totalsRowDxfId="781"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="780" totalsRowDxfId="779"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="778" totalsRowDxfId="777"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="776" totalsRowDxfId="775"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="774" totalsRowDxfId="773"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="772" totalsRowDxfId="771"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="770" totalsRowDxfId="769"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="768" totalsRowDxfId="767"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="766" totalsRowDxfId="765"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="764" totalsRowDxfId="763"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="762" totalsRowDxfId="761"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="760" totalsRowDxfId="759"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="758" totalsRowDxfId="757"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="756" totalsRowDxfId="755"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="754" totalsRowDxfId="753"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="752" totalsRowDxfId="751"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="750" totalsRowDxfId="749"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="748" totalsRowDxfId="747"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="746" totalsRowDxfId="745"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="744" totalsRowDxfId="743"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="742" totalsRowDxfId="741"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="740" totalsRowDxfId="739"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="738" totalsRowDxfId="737"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="736" totalsRowDxfId="735"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="734" totalsRowDxfId="733"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="732" totalsRowDxfId="731"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="730" totalsRowDxfId="729"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="728" totalsRowDxfId="727"/>
-    <tableColumn id="31" name=" " dataDxfId="726" totalsRowDxfId="725"/>
-    <tableColumn id="32" name="  " dataDxfId="724" totalsRowDxfId="723"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="722" totalsRowDxfId="721">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="772" totalsRowDxfId="771"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="770" totalsRowDxfId="769"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="768" totalsRowDxfId="767"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="766" totalsRowDxfId="765"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="764" totalsRowDxfId="763"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="762" totalsRowDxfId="761"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="760" totalsRowDxfId="759"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="758" totalsRowDxfId="757"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="756" totalsRowDxfId="755"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="754" totalsRowDxfId="753"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="752" totalsRowDxfId="751"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="750" totalsRowDxfId="749"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="748" totalsRowDxfId="747"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="746" totalsRowDxfId="745"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="744" totalsRowDxfId="743"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="742" totalsRowDxfId="741"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="740" totalsRowDxfId="739"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="738" totalsRowDxfId="737"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="736" totalsRowDxfId="735"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="734" totalsRowDxfId="733"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="732" totalsRowDxfId="731"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="730" totalsRowDxfId="729"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="728" totalsRowDxfId="727"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="726" totalsRowDxfId="725"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="724" totalsRowDxfId="723"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="722" totalsRowDxfId="721"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="720" totalsRowDxfId="719"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="718" totalsRowDxfId="717"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="716" totalsRowDxfId="715"/>
+    <tableColumn id="31" name=" " dataDxfId="714" totalsRowDxfId="713"/>
+    <tableColumn id="32" name="  " dataDxfId="712" totalsRowDxfId="711"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="710" totalsRowDxfId="709">
       <calculatedColumnFormula>COUNTA(Февраль[[#This Row],[1]:[29]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15783,43 +15783,43 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="720" dataDxfId="719" totalsRowDxfId="718">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="703" dataDxfId="702" totalsRowDxfId="701">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="717" totalsRowDxfId="716" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="700" totalsRowDxfId="699" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="715" totalsRowDxfId="714"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="713" totalsRowDxfId="712"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="711" totalsRowDxfId="710"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="709" totalsRowDxfId="708"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="707" totalsRowDxfId="706"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="705" totalsRowDxfId="704"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="703" totalsRowDxfId="702"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="701" totalsRowDxfId="700"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="699" totalsRowDxfId="698"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="697" totalsRowDxfId="696"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="695" totalsRowDxfId="694"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="693" totalsRowDxfId="692"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="691" totalsRowDxfId="690"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="689" totalsRowDxfId="688"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="687" totalsRowDxfId="686"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="685" totalsRowDxfId="684"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="683" totalsRowDxfId="682"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="681" totalsRowDxfId="680"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="679" totalsRowDxfId="678"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="677" totalsRowDxfId="676"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="675" totalsRowDxfId="674"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="673" totalsRowDxfId="672"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="671" totalsRowDxfId="670"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="669" totalsRowDxfId="668"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="667" totalsRowDxfId="666"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="665" totalsRowDxfId="664"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="663" totalsRowDxfId="662"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="661" totalsRowDxfId="660"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="659" totalsRowDxfId="658"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="657" totalsRowDxfId="656"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="655" totalsRowDxfId="654"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="653" totalsRowDxfId="652">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="698" totalsRowDxfId="697"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="696" totalsRowDxfId="695"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="694" totalsRowDxfId="693"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="692" totalsRowDxfId="691"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="690" totalsRowDxfId="689"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="688" totalsRowDxfId="687"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="686" totalsRowDxfId="685"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="684" totalsRowDxfId="683"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="682" totalsRowDxfId="681"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="680" totalsRowDxfId="679"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="678" totalsRowDxfId="677"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="676" totalsRowDxfId="675"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="674" totalsRowDxfId="673"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="672" totalsRowDxfId="671"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="670" totalsRowDxfId="669"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="668" totalsRowDxfId="667"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="666" totalsRowDxfId="665"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="664" totalsRowDxfId="663"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="662" totalsRowDxfId="661"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="660" totalsRowDxfId="659"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="658" totalsRowDxfId="657"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="656" totalsRowDxfId="655"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="654" totalsRowDxfId="653"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="652" totalsRowDxfId="651"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="650" totalsRowDxfId="649"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="648" totalsRowDxfId="647"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="646" totalsRowDxfId="645"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="644" totalsRowDxfId="643"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="642" totalsRowDxfId="641"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="640" totalsRowDxfId="639"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="638" totalsRowDxfId="637"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="636" totalsRowDxfId="635">
       <calculatedColumnFormula>COUNTA(Март[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15833,45 +15833,45 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="651" dataDxfId="650" totalsRowDxfId="649">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="629" dataDxfId="628" totalsRowDxfId="627">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="648" totalsRowDxfId="647" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="626" totalsRowDxfId="625" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="646" totalsRowDxfId="645"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="644" totalsRowDxfId="643"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="642" totalsRowDxfId="641"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="640" totalsRowDxfId="639"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="638" totalsRowDxfId="637"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="636" totalsRowDxfId="635"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="634" totalsRowDxfId="633"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="632" totalsRowDxfId="631"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="630" totalsRowDxfId="629"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="628" totalsRowDxfId="627"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="626" totalsRowDxfId="625"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="624" totalsRowDxfId="623"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="622" totalsRowDxfId="621"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="620" totalsRowDxfId="619"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="618" totalsRowDxfId="617"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="616" totalsRowDxfId="615"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="614" totalsRowDxfId="613"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="612" totalsRowDxfId="611"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="610" totalsRowDxfId="609"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="608" totalsRowDxfId="607"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="606" totalsRowDxfId="605"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="604" totalsRowDxfId="603"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="602" totalsRowDxfId="601"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="600" totalsRowDxfId="599"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="598" totalsRowDxfId="597"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="596" totalsRowDxfId="595"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="594" totalsRowDxfId="593"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="592" totalsRowDxfId="591"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="590" totalsRowDxfId="589"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="588" totalsRowDxfId="587"/>
-    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="586" totalsRowDxfId="585">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="624" totalsRowDxfId="623"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="622" totalsRowDxfId="621"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="620" totalsRowDxfId="619"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="618" totalsRowDxfId="617"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="616" totalsRowDxfId="615"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="614" totalsRowDxfId="613"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="612" totalsRowDxfId="611"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="610" totalsRowDxfId="609"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="608" totalsRowDxfId="607"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="606" totalsRowDxfId="605"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="604" totalsRowDxfId="603"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="602" totalsRowDxfId="601"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="600" totalsRowDxfId="599"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="598" totalsRowDxfId="597"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="596" totalsRowDxfId="595"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="594" totalsRowDxfId="593"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="592" totalsRowDxfId="591"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="590" totalsRowDxfId="589"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="588" totalsRowDxfId="587"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="586" totalsRowDxfId="585"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="584" totalsRowDxfId="583"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="581"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="579"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="577"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="575"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="573"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="571"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="569"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="567"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="565"/>
+    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="564" totalsRowDxfId="563">
       <totalsRowFormula>SUBTOTAL(103,Апрель[30])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="584" totalsRowDxfId="583">
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="562" totalsRowDxfId="561">
       <calculatedColumnFormula>COUNTA(Апрель[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15885,43 +15885,43 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="582" dataDxfId="581" totalsRowDxfId="580">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="555" dataDxfId="554" totalsRowDxfId="553">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="579" totalsRowDxfId="578" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="552" totalsRowDxfId="551" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="577" totalsRowDxfId="576"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="575" totalsRowDxfId="574"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="573" totalsRowDxfId="572"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="571" totalsRowDxfId="570"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="569" totalsRowDxfId="568"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="567" totalsRowDxfId="566"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="565" totalsRowDxfId="564"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="563" totalsRowDxfId="562"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="561" totalsRowDxfId="560"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="559" totalsRowDxfId="558"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="557" totalsRowDxfId="556"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="555" totalsRowDxfId="554"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="553" totalsRowDxfId="552"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="551" totalsRowDxfId="550"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="549" totalsRowDxfId="548"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="547" totalsRowDxfId="546"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="545" totalsRowDxfId="544"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="543" totalsRowDxfId="542"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="541" totalsRowDxfId="540"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="539" totalsRowDxfId="538"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="537" totalsRowDxfId="536"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="535" totalsRowDxfId="534"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="533" totalsRowDxfId="532"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="531" totalsRowDxfId="530"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="529" totalsRowDxfId="528"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="527" totalsRowDxfId="526"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="525" totalsRowDxfId="524"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="523" totalsRowDxfId="522"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="521" totalsRowDxfId="520"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="519" totalsRowDxfId="518"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="517" totalsRowDxfId="516"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="515" totalsRowDxfId="514">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="550" totalsRowDxfId="549"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="547"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="545"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="543"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="541"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="539"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="537"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="535"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="533"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="532" totalsRowDxfId="531"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="530" totalsRowDxfId="529"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="528" totalsRowDxfId="527"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="526" totalsRowDxfId="525"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="524" totalsRowDxfId="523"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="522" totalsRowDxfId="521"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="520" totalsRowDxfId="519"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="518" totalsRowDxfId="517"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="516" totalsRowDxfId="515"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="514" totalsRowDxfId="513"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="512" totalsRowDxfId="511"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="510" totalsRowDxfId="509"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="508" totalsRowDxfId="507"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="506" totalsRowDxfId="505"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="504" totalsRowDxfId="503"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="502" totalsRowDxfId="501"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="500" totalsRowDxfId="499"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="498" totalsRowDxfId="497"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="496" totalsRowDxfId="495"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="494" totalsRowDxfId="493"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="492" totalsRowDxfId="491"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="490" totalsRowDxfId="489"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="488" totalsRowDxfId="487">
       <calculatedColumnFormula>COUNTA(Май[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15935,43 +15935,43 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="513" dataDxfId="512" totalsRowDxfId="511">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="481" dataDxfId="480" totalsRowDxfId="479">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="510" totalsRowDxfId="509" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="478" totalsRowDxfId="477" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="508" totalsRowDxfId="507"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="506" totalsRowDxfId="505"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="504" totalsRowDxfId="503"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="502" totalsRowDxfId="501"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="500" totalsRowDxfId="499"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="498" totalsRowDxfId="497"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="496" totalsRowDxfId="495"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="494" totalsRowDxfId="493"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="492" totalsRowDxfId="491"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="490" totalsRowDxfId="489"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="488" totalsRowDxfId="487"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="486" totalsRowDxfId="485"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="484" totalsRowDxfId="483"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="482" totalsRowDxfId="481"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="480" totalsRowDxfId="479"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="478" totalsRowDxfId="477"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="476" totalsRowDxfId="475"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="474" totalsRowDxfId="473"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="472" totalsRowDxfId="471"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="470" totalsRowDxfId="469"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="468" totalsRowDxfId="467"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="466" totalsRowDxfId="465"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="464" totalsRowDxfId="463"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="462" totalsRowDxfId="461"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="460" totalsRowDxfId="459"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="458" totalsRowDxfId="457"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="456" totalsRowDxfId="455"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="454" totalsRowDxfId="453"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="452" totalsRowDxfId="451"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="450" totalsRowDxfId="449"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="448" totalsRowDxfId="447"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="446" totalsRowDxfId="445">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="476" totalsRowDxfId="475"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="474" totalsRowDxfId="473"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="472" totalsRowDxfId="471"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="470" totalsRowDxfId="469"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="468" totalsRowDxfId="467"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="466" totalsRowDxfId="465"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="464" totalsRowDxfId="463"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="462" totalsRowDxfId="461"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="460" totalsRowDxfId="459"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="458" totalsRowDxfId="457"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="456" totalsRowDxfId="455"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="454" totalsRowDxfId="453"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="452" totalsRowDxfId="451"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="450" totalsRowDxfId="449"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="448" totalsRowDxfId="447"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="446" totalsRowDxfId="445"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="444" totalsRowDxfId="443"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="442" totalsRowDxfId="441"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="414" totalsRowDxfId="413">
       <calculatedColumnFormula>COUNTA(Июнь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15985,43 +15985,43 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="444" dataDxfId="443" totalsRowDxfId="442">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="407" dataDxfId="406" totalsRowDxfId="405">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="441" totalsRowDxfId="440" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="404" totalsRowDxfId="403" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="439" totalsRowDxfId="438"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="437" totalsRowDxfId="436"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="435" totalsRowDxfId="434"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="433" totalsRowDxfId="432"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="431" totalsRowDxfId="430"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="429" totalsRowDxfId="428"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="427" totalsRowDxfId="426"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="425" totalsRowDxfId="424"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="423" totalsRowDxfId="422"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="421" totalsRowDxfId="420"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="419" totalsRowDxfId="418"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="417" totalsRowDxfId="416"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="415" totalsRowDxfId="414"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="413" totalsRowDxfId="412"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="411" totalsRowDxfId="410"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="409" totalsRowDxfId="408"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="407" totalsRowDxfId="406"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="405" totalsRowDxfId="404"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="403" totalsRowDxfId="402"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="401" totalsRowDxfId="400"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="399" totalsRowDxfId="398"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="397" totalsRowDxfId="396"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="395" totalsRowDxfId="394"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="393" totalsRowDxfId="392"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="391" totalsRowDxfId="390"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="389" totalsRowDxfId="388"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="387" totalsRowDxfId="386"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="385" totalsRowDxfId="384"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="383" totalsRowDxfId="382"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="381" totalsRowDxfId="380"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="379" totalsRowDxfId="378"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="377" totalsRowDxfId="376">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="402" totalsRowDxfId="401"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="394" totalsRowDxfId="393"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="392" totalsRowDxfId="391"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="390" totalsRowDxfId="389"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="388" totalsRowDxfId="387"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="386" totalsRowDxfId="385"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="384" totalsRowDxfId="383"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="382" totalsRowDxfId="381"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="380" totalsRowDxfId="379"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="378" totalsRowDxfId="377"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="376" totalsRowDxfId="375"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="374" totalsRowDxfId="373"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="372" totalsRowDxfId="371"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="370" totalsRowDxfId="369"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="368" totalsRowDxfId="367"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="366" totalsRowDxfId="365"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="364" totalsRowDxfId="363"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="362" totalsRowDxfId="361"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="360" totalsRowDxfId="359"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="358" totalsRowDxfId="357"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="356" totalsRowDxfId="355"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="354" totalsRowDxfId="353"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="352" totalsRowDxfId="351"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="350" totalsRowDxfId="349"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="348" totalsRowDxfId="347"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="346" totalsRowDxfId="345"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="344" totalsRowDxfId="343"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="342" totalsRowDxfId="341"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="340" totalsRowDxfId="339">
       <calculatedColumnFormula>COUNTA(Июль[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16035,43 +16035,43 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="375" dataDxfId="374" totalsRowDxfId="373">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="333" dataDxfId="332" totalsRowDxfId="331">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="372" totalsRowDxfId="371" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="330" totalsRowDxfId="329" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="370" totalsRowDxfId="369"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="368" totalsRowDxfId="367"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="366" totalsRowDxfId="365"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="364" totalsRowDxfId="363"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="362" totalsRowDxfId="361"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="360" totalsRowDxfId="359"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="358" totalsRowDxfId="357"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="356" totalsRowDxfId="355"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="354" totalsRowDxfId="353"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="352" totalsRowDxfId="351"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="350" totalsRowDxfId="349"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="348" totalsRowDxfId="347"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="346" totalsRowDxfId="345"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="344" totalsRowDxfId="343"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="342" totalsRowDxfId="341"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="340" totalsRowDxfId="339"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="338" totalsRowDxfId="337"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="336" totalsRowDxfId="335"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="334" totalsRowDxfId="333"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="332" totalsRowDxfId="331"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="330" totalsRowDxfId="329"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="328" totalsRowDxfId="327"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="326" totalsRowDxfId="325"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="324" totalsRowDxfId="323"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="322" totalsRowDxfId="321"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="320" totalsRowDxfId="319"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="318" totalsRowDxfId="317"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="316" totalsRowDxfId="315"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="314" totalsRowDxfId="313"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="312" totalsRowDxfId="311"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="310" totalsRowDxfId="309"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="308" totalsRowDxfId="307">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="328" totalsRowDxfId="327"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="326" totalsRowDxfId="325"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="324" totalsRowDxfId="323"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="322" totalsRowDxfId="321"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="320" totalsRowDxfId="319"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="318" totalsRowDxfId="317"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="316" totalsRowDxfId="315"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="314" totalsRowDxfId="313"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="312" totalsRowDxfId="311"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="310" totalsRowDxfId="309"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="308" totalsRowDxfId="307"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="306" totalsRowDxfId="305"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="304" totalsRowDxfId="303"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="302" totalsRowDxfId="301"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="300" totalsRowDxfId="299"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="298" totalsRowDxfId="297"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="296" totalsRowDxfId="295"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="294" totalsRowDxfId="293"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="292" totalsRowDxfId="291"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="290" totalsRowDxfId="289"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="288" totalsRowDxfId="287"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="286" totalsRowDxfId="285"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="284" totalsRowDxfId="283"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="282" totalsRowDxfId="281"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="266" totalsRowDxfId="265">
       <calculatedColumnFormula>COUNTA(Август[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16085,43 +16085,43 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="306" dataDxfId="305" totalsRowDxfId="304">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="259" dataDxfId="258" totalsRowDxfId="257">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="303" totalsRowDxfId="302" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="256" totalsRowDxfId="255" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="301" totalsRowDxfId="300"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="299" totalsRowDxfId="298"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="297" totalsRowDxfId="296"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="295" totalsRowDxfId="294"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="293" totalsRowDxfId="292"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="291" totalsRowDxfId="290"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="289" totalsRowDxfId="288"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="287" totalsRowDxfId="286"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="285" totalsRowDxfId="284"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="283" totalsRowDxfId="282"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="281" totalsRowDxfId="280"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="279" totalsRowDxfId="278"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="277" totalsRowDxfId="276"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="275" totalsRowDxfId="274"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="273" totalsRowDxfId="272"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="271" totalsRowDxfId="270"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="269" totalsRowDxfId="268"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="267" totalsRowDxfId="266"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="265" totalsRowDxfId="264"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="263" totalsRowDxfId="262"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="261" totalsRowDxfId="260"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="259" totalsRowDxfId="258"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="257" totalsRowDxfId="256"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="255" totalsRowDxfId="254"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="253" totalsRowDxfId="252"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="251" totalsRowDxfId="250"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="249" totalsRowDxfId="248"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="247" totalsRowDxfId="246"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="245" totalsRowDxfId="244"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="243" totalsRowDxfId="242"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="241" totalsRowDxfId="240"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="239" totalsRowDxfId="238">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="253"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="252" totalsRowDxfId="251"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="250" totalsRowDxfId="249"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="246" totalsRowDxfId="245"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="244" totalsRowDxfId="243"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="242" totalsRowDxfId="241"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="238" totalsRowDxfId="237"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="236" totalsRowDxfId="235"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="234" totalsRowDxfId="233"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="232" totalsRowDxfId="231"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="230" totalsRowDxfId="229"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="228" totalsRowDxfId="227"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="226" totalsRowDxfId="225"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="224" totalsRowDxfId="223"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="222" totalsRowDxfId="221"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="220" totalsRowDxfId="219"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="218" totalsRowDxfId="217"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="216" totalsRowDxfId="215"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="214" totalsRowDxfId="213"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="212" totalsRowDxfId="211"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="210" totalsRowDxfId="209"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="208" totalsRowDxfId="207"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="206" totalsRowDxfId="205"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="204" totalsRowDxfId="203"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="202" totalsRowDxfId="201"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="200" totalsRowDxfId="199"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="198" totalsRowDxfId="197"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="196" totalsRowDxfId="195"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="194" totalsRowDxfId="193"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="192" totalsRowDxfId="191">
       <calculatedColumnFormula>COUNTA(Сентябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16394,42 +16394,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AH3" s="19" t="s">
@@ -16440,39 +16440,39 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <v>2021</v>
       </c>
@@ -17204,19 +17204,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="857" priority="6" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="856" priority="7" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="855" priority="8" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="854" priority="9" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="853" priority="10" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17318,34 +17318,34 @@
       <c r="C2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -17354,39 +17354,39 @@
       <c r="B4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -18512,19 +18512,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18600,7 +18600,7 @@
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="68" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18621,28 +18621,28 @@
     <row r="2" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -18651,39 +18651,39 @@
       <c r="B4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -18947,14 +18947,16 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
+      <c r="AC7" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="29">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19075,14 +19077,16 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
+      <c r="AC10" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="29">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19119,14 +19123,16 @@
       </c>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
+      <c r="AC11" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="29">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19684,137 +19690,137 @@
       </c>
     </row>
     <row r="25" spans="2:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="38" t="str">
+      <c r="B25" s="36" t="str">
         <f>ИмяМесяца&amp;" Итог"</f>
         <v>Ноябрь Итог</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="37">
         <f>SUBTOTAL(103,Ноябрь[1])</f>
         <v>0</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="37">
         <f>SUBTOTAL(103,Ноябрь[2])</f>
         <v>0</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="37">
         <f>SUBTOTAL(103,Ноябрь[3])</f>
         <v>0</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="37">
         <f>SUBTOTAL(103,Ноябрь[4])</f>
         <v>0</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="37">
         <f>SUBTOTAL(103,Ноябрь[5])</f>
         <v>0</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="37">
         <f>SUBTOTAL(103,Ноябрь[6])</f>
         <v>0</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="37">
         <f>SUBTOTAL(103,Ноябрь[7])</f>
         <v>0</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="37">
         <f>SUBTOTAL(103,Ноябрь[8])</f>
         <v>0</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="37">
         <f>SUBTOTAL(103,Ноябрь[9])</f>
         <v>0</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="37">
         <f>SUBTOTAL(103,Ноябрь[10])</f>
         <v>0</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="37">
         <f>SUBTOTAL(103,Ноябрь[11])</f>
         <v>0</v>
       </c>
-      <c r="N25" s="39">
+      <c r="N25" s="37">
         <f>SUBTOTAL(103,Ноябрь[12])</f>
         <v>0</v>
       </c>
-      <c r="O25" s="39">
+      <c r="O25" s="37">
         <f>SUBTOTAL(103,Ноябрь[13])</f>
         <v>3</v>
       </c>
-      <c r="P25" s="39">
+      <c r="P25" s="37">
         <f>SUBTOTAL(103,Ноябрь[14])</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="39">
+      <c r="Q25" s="37">
         <f>SUBTOTAL(103,Ноябрь[15])</f>
         <v>0</v>
       </c>
-      <c r="R25" s="39">
+      <c r="R25" s="37">
         <f>SUBTOTAL(103,Ноябрь[16])</f>
         <v>0</v>
       </c>
-      <c r="S25" s="39">
+      <c r="S25" s="37">
         <f>SUBTOTAL(103,Ноябрь[17])</f>
         <v>0</v>
       </c>
-      <c r="T25" s="39">
+      <c r="T25" s="37">
         <f>SUBTOTAL(103,Ноябрь[18])</f>
         <v>0</v>
       </c>
-      <c r="U25" s="39">
+      <c r="U25" s="37">
         <f>SUBTOTAL(103,Ноябрь[19])</f>
         <v>0</v>
       </c>
-      <c r="V25" s="39">
+      <c r="V25" s="37">
         <f>SUBTOTAL(103,Ноябрь[20])</f>
         <v>18</v>
       </c>
-      <c r="W25" s="39">
+      <c r="W25" s="37">
         <f>SUBTOTAL(103,Ноябрь[21])</f>
         <v>0</v>
       </c>
-      <c r="X25" s="39">
+      <c r="X25" s="37">
         <f>SUBTOTAL(103,Ноябрь[22])</f>
         <v>0</v>
       </c>
-      <c r="Y25" s="39">
+      <c r="Y25" s="37">
         <f>SUBTOTAL(103,Ноябрь[23])</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="39">
+      <c r="Z25" s="37">
         <f>SUBTOTAL(103,Ноябрь[24])</f>
         <v>3</v>
       </c>
-      <c r="AA25" s="39">
+      <c r="AA25" s="37">
         <f>SUBTOTAL(103,Ноябрь[25])</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="39">
+      <c r="AB25" s="37">
         <f>SUBTOTAL(103,Ноябрь[26])</f>
         <v>0</v>
       </c>
-      <c r="AC25" s="39">
+      <c r="AC25" s="37">
         <f>SUBTOTAL(103,Ноябрь[27])</f>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="39">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="37">
         <f>SUBTOTAL(103,Ноябрь[28])</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="39">
+      <c r="AE25" s="37">
         <f>SUBTOTAL(103,Ноябрь[29])</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="39">
+      <c r="AF25" s="37">
         <f>SUBTOTAL(103,Ноябрь[30])</f>
         <v>0</v>
       </c>
-      <c r="AG25" s="39">
+      <c r="AG25" s="37">
         <f>SUBTOTAL(103,Ноябрь[[ ]])</f>
         <v>0</v>
       </c>
-      <c r="AH25" s="40">
+      <c r="AH25" s="38">
         <f>SUBTOTAL(109,Ноябрь[Всего дней])</f>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -19832,19 +19838,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:AG24 C7:V24">
-    <cfRule type="expression" dxfId="44" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19941,42 +19947,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -19985,39 +19991,39 @@
       <c r="B4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -20601,19 +20607,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="39" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20850,42 +20856,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3"/>
@@ -20894,39 +20900,39 @@
       <c r="B4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -21536,12 +21542,12 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="AE6">
-    <cfRule type="expression" dxfId="91" priority="16">
+    <cfRule type="expression" dxfId="784" priority="16">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5">
-    <cfRule type="expression" dxfId="90" priority="15">
+    <cfRule type="expression" dxfId="783" priority="15">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21549,21 +21555,21 @@
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="782" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="88" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="781" priority="5" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="780" priority="6" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="779" priority="7" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="778" priority="8" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21672,42 +21678,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -21716,39 +21722,39 @@
       <c r="B4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -22332,19 +22338,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="84" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="708" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="707" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="706" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="705" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="704" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22451,42 +22457,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -22495,39 +22501,39 @@
       <c r="B4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -23108,19 +23114,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="79" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="634" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="633" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="632" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="631" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="630" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23227,42 +23233,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -23271,39 +23277,39 @@
       <c r="B4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -23887,19 +23893,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="74" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="560" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="559" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="558" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="557" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="556" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24006,42 +24012,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -24050,39 +24056,39 @@
       <c r="B4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -24663,19 +24669,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="69" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24782,42 +24788,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -24826,39 +24832,39 @@
       <c r="B4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -25442,19 +25448,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="64" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25561,42 +25567,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -25605,39 +25611,39 @@
       <c r="B4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -26221,19 +26227,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="59" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26340,42 +26346,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -26384,39 +26390,39 @@
       <c r="B4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -26997,19 +27003,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="54" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Посещаемость/Октябрь.xlsx
+++ b/Посещаемость/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="91">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -18599,8 +18599,8 @@
   </sheetPr>
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="68" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="68" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18950,13 +18950,15 @@
       <c r="AC7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AD7" s="2"/>
+      <c r="AD7" s="2">
+        <v>5</v>
+      </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="29">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -18983,7 +18985,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="2"/>
@@ -18991,14 +18993,18 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
+      <c r="AC8" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>5</v>
+      </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="29">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19035,14 +19041,18 @@
       </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
+      <c r="AC9" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>5</v>
+      </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="29">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19080,13 +19090,15 @@
       <c r="AC10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AD10" s="2"/>
+      <c r="AD10" s="2">
+        <v>5</v>
+      </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="29">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19168,13 +19180,15 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
+      <c r="AD12" s="1">
+        <v>5</v>
+      </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="30">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19209,14 +19223,18 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
+      <c r="AC13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>5</v>
+      </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="30">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19298,13 +19316,15 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
+      <c r="AD15" s="1">
+        <v>5</v>
+      </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="30">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19341,14 +19361,16 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
+      <c r="AC16" s="1">
+        <v>5</v>
+      </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="30">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19425,14 +19447,16 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
+      <c r="AC18" s="1">
+        <v>5</v>
+      </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="30">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19509,14 +19533,18 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
+      <c r="AC20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>5</v>
+      </c>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="30">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19552,13 +19580,15 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
+      <c r="AD21" s="1">
+        <v>5</v>
+      </c>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="30">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19594,13 +19624,15 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
+      <c r="AD22" s="1">
+        <v>5</v>
+      </c>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="30">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19671,7 +19703,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -19679,14 +19711,18 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
+      <c r="AC24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>5</v>
+      </c>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="30">
         <f>COUNTA(Ноябрь[[#This Row],[1]:[30]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -19800,11 +19836,11 @@
       </c>
       <c r="AC25" s="37">
         <f>SUBTOTAL(103,Ноябрь[27])</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AD25" s="37">
         <f>SUBTOTAL(103,Ноябрь[28])</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE25" s="37">
         <f>SUBTOTAL(103,Ноябрь[29])</f>
@@ -19820,7 +19856,7 @@
       </c>
       <c r="AH25" s="38">
         <f>SUBTOTAL(109,Ноябрь[Всего дней])</f>
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Посещаемость/Октябрь.xlsx
+++ b/Посещаемость/Октябрь.xlsx
@@ -2307,60 +2307,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3575,6 +3521,60 @@
           <color theme="2" tint="-0.499984740745262"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -15996,41 +15996,41 @@
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="216" dataDxfId="215" totalsRowDxfId="214">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="213" totalsRowDxfId="32" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="213" totalsRowDxfId="65" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="212" totalsRowDxfId="31"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="211" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="210" totalsRowDxfId="29"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="209" totalsRowDxfId="28"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="208" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="207" totalsRowDxfId="26"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="206" totalsRowDxfId="25"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="205" totalsRowDxfId="24"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="204" totalsRowDxfId="23"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="203" totalsRowDxfId="22"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="202" totalsRowDxfId="21"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="201" totalsRowDxfId="20"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="200" totalsRowDxfId="19"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="199" totalsRowDxfId="18"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="198" totalsRowDxfId="17"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="197" totalsRowDxfId="16"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="15"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="196" totalsRowDxfId="14"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="195" totalsRowDxfId="13"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="194" totalsRowDxfId="12"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="193" totalsRowDxfId="11"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="192" totalsRowDxfId="10"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="191" totalsRowDxfId="9"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="190" totalsRowDxfId="8"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="189" totalsRowDxfId="7"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="188" totalsRowDxfId="6"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="187" totalsRowDxfId="5"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="186" totalsRowDxfId="4"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="185" totalsRowDxfId="3"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="184" totalsRowDxfId="2"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="183" totalsRowDxfId="1"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="182" totalsRowDxfId="0">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="212" totalsRowDxfId="64"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="211" totalsRowDxfId="63"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="210" totalsRowDxfId="62"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="209" totalsRowDxfId="61"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="208" totalsRowDxfId="60"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="207" totalsRowDxfId="59"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="206" totalsRowDxfId="58"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="205" totalsRowDxfId="57"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="204" totalsRowDxfId="56"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="203" totalsRowDxfId="55"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="202" totalsRowDxfId="54"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="201" totalsRowDxfId="53"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="200" totalsRowDxfId="52"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="199" totalsRowDxfId="51"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="198" totalsRowDxfId="50"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="197" totalsRowDxfId="49"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="66" totalsRowDxfId="48"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="196" totalsRowDxfId="47"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="195" totalsRowDxfId="46"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="194" totalsRowDxfId="45"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="193" totalsRowDxfId="44"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="192" totalsRowDxfId="43"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="191" totalsRowDxfId="42"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="190" totalsRowDxfId="41"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="189" totalsRowDxfId="40"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="188" totalsRowDxfId="39"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="187" totalsRowDxfId="38"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="186" totalsRowDxfId="37"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="185" totalsRowDxfId="36"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="184" totalsRowDxfId="35"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="183" totalsRowDxfId="34"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="182" totalsRowDxfId="33">
       <calculatedColumnFormula>COUNTA(Ноябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16046,41 +16046,41 @@
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="181" dataDxfId="180" totalsRowDxfId="72">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="172" totalsRowDxfId="71" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="172" totalsRowDxfId="32" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="171" totalsRowDxfId="70"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="170" totalsRowDxfId="69"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="169" totalsRowDxfId="68"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="168" totalsRowDxfId="67"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="167" totalsRowDxfId="66"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="166" totalsRowDxfId="65"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="165" totalsRowDxfId="64"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="164" totalsRowDxfId="63"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="163" totalsRowDxfId="62"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="162" totalsRowDxfId="61"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="60"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="160" totalsRowDxfId="59"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="159" totalsRowDxfId="58"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="158" totalsRowDxfId="57"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="157" totalsRowDxfId="56"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="156" totalsRowDxfId="55"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="155" totalsRowDxfId="54"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="154" totalsRowDxfId="53"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="153" totalsRowDxfId="52"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="152" totalsRowDxfId="51"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="151" totalsRowDxfId="50"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="150" totalsRowDxfId="49"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="149" totalsRowDxfId="48"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="148" totalsRowDxfId="47"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="147" totalsRowDxfId="46"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="146" totalsRowDxfId="45"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="145" totalsRowDxfId="44"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="144" totalsRowDxfId="43"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="143" totalsRowDxfId="42"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="142" totalsRowDxfId="41"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="141" totalsRowDxfId="40"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="140" totalsRowDxfId="39">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="171" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="170" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="169" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="168" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="167" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="166" totalsRowDxfId="26"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="165" totalsRowDxfId="25"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="164" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="163" totalsRowDxfId="23"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="162" totalsRowDxfId="22"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="21"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="160" totalsRowDxfId="20"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="159" totalsRowDxfId="19"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="158" totalsRowDxfId="18"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="157" totalsRowDxfId="17"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="156" totalsRowDxfId="16"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="155" totalsRowDxfId="15"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="154" totalsRowDxfId="14"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="153" totalsRowDxfId="13"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="152" totalsRowDxfId="12"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="151" totalsRowDxfId="11"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="150" totalsRowDxfId="10"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="149" totalsRowDxfId="9"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="148" totalsRowDxfId="8"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="147" totalsRowDxfId="7"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="146" totalsRowDxfId="6"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="145" totalsRowDxfId="5"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="144" totalsRowDxfId="4"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="143" totalsRowDxfId="3"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="142" totalsRowDxfId="2"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="141" totalsRowDxfId="1"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="140" totalsRowDxfId="0">
       <calculatedColumnFormula>COUNTA(Декабрь[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -20290,19 +20290,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:S24">
-    <cfRule type="expression" dxfId="38" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="2" stopIfTrue="1">
       <formula>S7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="3" stopIfTrue="1">
       <formula>S7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="4" stopIfTrue="1">
       <formula>S7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="5" stopIfTrue="1">
       <formula>S7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="6" stopIfTrue="1">
       <formula>S7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20362,7 +20362,7 @@
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Посещаемость/Октябрь.xlsx
+++ b/Посещаемость/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="91">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -20261,8 +20261,8 @@
   </sheetPr>
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20621,7 +20621,9 @@
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="T7" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="1"/>
@@ -20637,7 +20639,7 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="29">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -20787,7 +20789,9 @@
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="T11" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="1"/>
@@ -20803,7 +20807,7 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="29">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -20829,7 +20833,9 @@
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="T12" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -20845,7 +20851,7 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -20915,7 +20921,9 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="T14" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -20931,7 +20939,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -20955,7 +20963,9 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="T15" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -20971,7 +20981,7 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -21077,7 +21087,9 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+      <c r="T18" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -21093,7 +21105,7 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -21239,7 +21251,9 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+      <c r="T22" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -21255,7 +21269,7 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -21417,7 +21431,7 @@
       </c>
       <c r="T25" s="37">
         <f>SUBTOTAL(103,Декабрь[18])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U25" s="37">
         <f>SUBTOTAL(103,Декабрь[19])</f>
@@ -21473,7 +21487,7 @@
       </c>
       <c r="AH25" s="38">
         <f>SUBTOTAL(109,Декабрь[Всего дней])</f>
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Посещаемость/Октябрь.xlsx
+++ b/Посещаемость/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="91">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -377,12 +377,20 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ &quot;lei&quot;_-;\-* #,##0.00\ &quot;lei&quot;_-;_-* &quot;-&quot;??\ &quot;lei&quot;_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0\ &quot;lei&quot;_-;\-* #,##0\ &quot;lei&quot;_-;_-* &quot;-&quot;\ &quot;lei&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -840,79 +848,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -922,67 +930,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="12" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="12" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="19" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="19" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="23" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="23" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="14" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="14" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="26" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="26" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="25" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="25" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="21" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="21" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="26" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="26" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="4" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="4" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="27" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="27" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="26" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="26" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -994,47 +1002,56 @@
     <xf numFmtId="166" fontId="0" fillId="33" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="25" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="25" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="26" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="26" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="33" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="33" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="33" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="33" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="21" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="21" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="33" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="33" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2307,6 +2324,10 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2321,10 +2342,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -15956,31 +15973,31 @@
     <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="27"/>
     <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="26"/>
     <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="25"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="24"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="23"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="57" totalsRowDxfId="22"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="21"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="55" totalsRowDxfId="20"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="19"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="18"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="17"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="16"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="15"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="14"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="13"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="12"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="11"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="10"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="9"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="8"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="7"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="6"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="5"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="39" totalsRowDxfId="4"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="3"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="37" totalsRowDxfId="2"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="36" totalsRowDxfId="1"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="0">
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="23"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="22"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="57" totalsRowDxfId="21"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="20"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="55" totalsRowDxfId="19"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="18"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="17"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="16"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="15"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="14"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="13"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="12"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="11"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="10"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="9"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="8"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="7"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="6"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="5"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="4"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="39" totalsRowDxfId="3"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="2"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="37" totalsRowDxfId="1"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="0">
       <calculatedColumnFormula>COUNTA(Декабрь[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15994,10 +16011,10 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="34" dataCellStyle="Сотрудник">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="35" dataCellStyle="Сотрудник">
   <autoFilter ref="B3:B19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Имена сотрудников" dataDxfId="33" dataCellStyle="Сотрудник"/>
+    <tableColumn id="1" name="Имена сотрудников" dataDxfId="34" dataCellStyle="Сотрудник"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -18783,7 +18800,7 @@
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="H2:K2"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C7:AG23">
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
@@ -20261,8 +20278,8 @@
   </sheetPr>
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20609,7 +20626,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -20639,7 +20658,7 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="29">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -20789,9 +20808,7 @@
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="1"/>
@@ -20807,7 +20824,7 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="29">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -20821,7 +20838,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -20851,7 +20870,7 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -20909,7 +20928,9 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
@@ -20939,7 +20960,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -20953,7 +20974,9 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -20963,9 +20986,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -21077,7 +21098,9 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -21105,7 +21128,7 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -21241,7 +21264,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -21269,7 +21294,7 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -21357,137 +21382,137 @@
       </c>
     </row>
     <row r="25" spans="2:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="36" t="str">
+      <c r="B25" s="41" t="str">
         <f>ИмяМесяца&amp;" Итог"</f>
         <v>Декабрь Итог</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="42">
         <f>SUBTOTAL(103,Декабрь[1])</f>
         <v>3</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="42">
         <f>SUBTOTAL(103,Декабрь[2])</f>
         <v>0</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="42">
         <f>SUBTOTAL(103,Декабрь[3])</f>
         <v>0</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="42">
         <f>SUBTOTAL(103,Декабрь[4])</f>
         <v>2</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="42">
         <f>SUBTOTAL(103,Декабрь[5])</f>
         <v>0</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="42">
         <f>SUBTOTAL(103,Декабрь[6])</f>
         <v>0</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="42">
         <f>SUBTOTAL(103,Декабрь[7])</f>
         <v>0</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="42">
         <f>SUBTOTAL(103,Декабрь[8])</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="37">
+        <v>6</v>
+      </c>
+      <c r="K25" s="42">
         <f>SUBTOTAL(103,Декабрь[9])</f>
         <v>0</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="42">
         <f>SUBTOTAL(103,Декабрь[10])</f>
         <v>0</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="42">
         <f>SUBTOTAL(103,Декабрь[11])</f>
         <v>3</v>
       </c>
-      <c r="N25" s="37">
+      <c r="N25" s="42">
         <f>SUBTOTAL(103,Декабрь[12])</f>
         <v>0</v>
       </c>
-      <c r="O25" s="37">
+      <c r="O25" s="42">
         <f>SUBTOTAL(103,Декабрь[13])</f>
         <v>0</v>
       </c>
-      <c r="P25" s="37">
+      <c r="P25" s="42">
         <f>SUBTOTAL(103,Декабрь[14])</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="37">
+      <c r="Q25" s="42">
         <f>SUBTOTAL(103,Декабрь[15])</f>
         <v>4</v>
       </c>
-      <c r="R25" s="37">
+      <c r="R25" s="42">
         <f>SUBTOTAL(103,Декабрь[16])</f>
         <v>0</v>
       </c>
-      <c r="S25" s="37">
+      <c r="S25" s="42">
         <f>SUBTOTAL(103,Декабрь[17])</f>
         <v>0</v>
       </c>
-      <c r="T25" s="37">
+      <c r="T25" s="42">
         <f>SUBTOTAL(103,Декабрь[18])</f>
-        <v>7</v>
-      </c>
-      <c r="U25" s="37">
+        <v>5</v>
+      </c>
+      <c r="U25" s="42">
         <f>SUBTOTAL(103,Декабрь[19])</f>
         <v>0</v>
       </c>
-      <c r="V25" s="37">
+      <c r="V25" s="42">
         <f>SUBTOTAL(103,Декабрь[20])</f>
         <v>0</v>
       </c>
-      <c r="W25" s="37">
+      <c r="W25" s="42">
         <f>SUBTOTAL(103,Декабрь[21])</f>
         <v>0</v>
       </c>
-      <c r="X25" s="37">
+      <c r="X25" s="42">
         <f>SUBTOTAL(103,Декабрь[22])</f>
         <v>0</v>
       </c>
-      <c r="Y25" s="37">
+      <c r="Y25" s="42">
         <f>SUBTOTAL(103,Декабрь[23])</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="37">
+      <c r="Z25" s="42">
         <f>SUBTOTAL(103,Декабрь[24])</f>
         <v>0</v>
       </c>
-      <c r="AA25" s="37">
+      <c r="AA25" s="42">
         <f>SUBTOTAL(103,Декабрь[25])</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="37">
+      <c r="AB25" s="42">
         <f>SUBTOTAL(103,Декабрь[26])</f>
         <v>0</v>
       </c>
-      <c r="AC25" s="37">
+      <c r="AC25" s="42">
         <f>SUBTOTAL(103,Декабрь[27])</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="37">
+      <c r="AD25" s="42">
         <f>SUBTOTAL(103,Декабрь[28])</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="37">
+      <c r="AE25" s="42">
         <f>SUBTOTAL(103,Декабрь[29])</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="37">
+      <c r="AF25" s="42">
         <f>SUBTOTAL(103,Декабрь[30])</f>
         <v>0</v>
       </c>
-      <c r="AG25" s="37">
+      <c r="AG25" s="42">
         <f>SUBTOTAL(103,Декабрь[31])</f>
         <v>0</v>
       </c>
-      <c r="AH25" s="38">
+      <c r="AH25" s="43">
         <f>SUBTOTAL(109,Декабрь[Всего дней])</f>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -22428,7 +22453,7 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="AE6">
     <cfRule type="expression" dxfId="789" priority="16">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>

--- a/Посещаемость/Октябрь.xlsx
+++ b/Посещаемость/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="91">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -1038,12 +1038,6 @@
     <xf numFmtId="166" fontId="21" fillId="33" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="21" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1052,6 +1046,12 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="33" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="21" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2324,10 +2324,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2342,6 +2338,10 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -15973,31 +15973,31 @@
     <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="27"/>
     <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="26"/>
     <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="25"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="24"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="23"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="22"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="57" totalsRowDxfId="21"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="20"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="55" totalsRowDxfId="19"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="18"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="17"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="16"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="15"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="14"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="13"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="12"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="11"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="10"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="9"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="8"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="7"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="6"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="5"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="4"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="39" totalsRowDxfId="3"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="2"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="37" totalsRowDxfId="1"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="0">
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="23"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="57" totalsRowDxfId="22"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="21"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="55" totalsRowDxfId="20"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="19"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="18"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="17"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="16"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="15"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="14"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="13"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="12"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="11"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="10"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="9"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="8"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="7"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="6"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="5"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="39" totalsRowDxfId="4"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="3"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="37" totalsRowDxfId="2"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="36" totalsRowDxfId="1"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="0">
       <calculatedColumnFormula>COUNTA(Декабрь[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16011,10 +16011,10 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="35" dataCellStyle="Сотрудник">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="34" dataCellStyle="Сотрудник">
   <autoFilter ref="B3:B19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Имена сотрудников" dataDxfId="34" dataCellStyle="Сотрудник"/>
+    <tableColumn id="1" name="Имена сотрудников" dataDxfId="33" dataCellStyle="Сотрудник"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -16687,42 +16687,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AH3" s="19" t="s">
@@ -16733,39 +16733,39 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
       <c r="AH4" s="11">
         <v>2021</v>
       </c>
@@ -17611,34 +17611,34 @@
       <c r="C2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -17647,39 +17647,39 @@
       <c r="B4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -18914,28 +18914,28 @@
     <row r="2" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -18944,39 +18944,39 @@
       <c r="B4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -20278,8 +20278,8 @@
   </sheetPr>
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20304,42 +20304,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -20348,39 +20348,39 @@
       <c r="B4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -20646,7 +20646,9 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="2"/>
+      <c r="X7" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
@@ -20658,7 +20660,7 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="29">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -20900,7 +20902,9 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
+      <c r="X13" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
@@ -20912,7 +20916,7 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -20948,7 +20952,9 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
+      <c r="X14" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
@@ -20960,7 +20966,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -21030,7 +21036,9 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
+      <c r="X16" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
@@ -21042,7 +21050,7 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -21072,7 +21080,9 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
+      <c r="X17" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -21084,7 +21094,7 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -21116,7 +21126,9 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
+      <c r="X18" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
@@ -21128,7 +21140,7 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -21196,7 +21208,9 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
+      <c r="X20" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
@@ -21208,7 +21222,7 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -21282,7 +21296,9 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
+      <c r="X22" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
@@ -21294,7 +21310,7 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -21326,7 +21342,9 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
+      <c r="X23" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
@@ -21338,7 +21356,7 @@
       <c r="AG23" s="1"/>
       <c r="AH23" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -21382,137 +21400,137 @@
       </c>
     </row>
     <row r="25" spans="2:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="41" t="str">
+      <c r="B25" s="39" t="str">
         <f>ИмяМесяца&amp;" Итог"</f>
         <v>Декабрь Итог</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="40">
         <f>SUBTOTAL(103,Декабрь[1])</f>
         <v>3</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="40">
         <f>SUBTOTAL(103,Декабрь[2])</f>
         <v>0</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="40">
         <f>SUBTOTAL(103,Декабрь[3])</f>
         <v>0</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="40">
         <f>SUBTOTAL(103,Декабрь[4])</f>
         <v>2</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="40">
         <f>SUBTOTAL(103,Декабрь[5])</f>
         <v>0</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="40">
         <f>SUBTOTAL(103,Декабрь[6])</f>
         <v>0</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="40">
         <f>SUBTOTAL(103,Декабрь[7])</f>
         <v>0</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="40">
         <f>SUBTOTAL(103,Декабрь[8])</f>
         <v>6</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="40">
         <f>SUBTOTAL(103,Декабрь[9])</f>
         <v>0</v>
       </c>
-      <c r="L25" s="42">
+      <c r="L25" s="40">
         <f>SUBTOTAL(103,Декабрь[10])</f>
         <v>0</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M25" s="40">
         <f>SUBTOTAL(103,Декабрь[11])</f>
         <v>3</v>
       </c>
-      <c r="N25" s="42">
+      <c r="N25" s="40">
         <f>SUBTOTAL(103,Декабрь[12])</f>
         <v>0</v>
       </c>
-      <c r="O25" s="42">
+      <c r="O25" s="40">
         <f>SUBTOTAL(103,Декабрь[13])</f>
         <v>0</v>
       </c>
-      <c r="P25" s="42">
+      <c r="P25" s="40">
         <f>SUBTOTAL(103,Декабрь[14])</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="42">
+      <c r="Q25" s="40">
         <f>SUBTOTAL(103,Декабрь[15])</f>
         <v>4</v>
       </c>
-      <c r="R25" s="42">
+      <c r="R25" s="40">
         <f>SUBTOTAL(103,Декабрь[16])</f>
         <v>0</v>
       </c>
-      <c r="S25" s="42">
+      <c r="S25" s="40">
         <f>SUBTOTAL(103,Декабрь[17])</f>
         <v>0</v>
       </c>
-      <c r="T25" s="42">
+      <c r="T25" s="40">
         <f>SUBTOTAL(103,Декабрь[18])</f>
         <v>5</v>
       </c>
-      <c r="U25" s="42">
+      <c r="U25" s="40">
         <f>SUBTOTAL(103,Декабрь[19])</f>
         <v>0</v>
       </c>
-      <c r="V25" s="42">
+      <c r="V25" s="40">
         <f>SUBTOTAL(103,Декабрь[20])</f>
         <v>0</v>
       </c>
-      <c r="W25" s="42">
+      <c r="W25" s="40">
         <f>SUBTOTAL(103,Декабрь[21])</f>
         <v>0</v>
       </c>
-      <c r="X25" s="42">
+      <c r="X25" s="40">
         <f>SUBTOTAL(103,Декабрь[22])</f>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="42">
+        <v>9</v>
+      </c>
+      <c r="Y25" s="40">
         <f>SUBTOTAL(103,Декабрь[23])</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="42">
+      <c r="Z25" s="40">
         <f>SUBTOTAL(103,Декабрь[24])</f>
         <v>0</v>
       </c>
-      <c r="AA25" s="42">
+      <c r="AA25" s="40">
         <f>SUBTOTAL(103,Декабрь[25])</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="42">
+      <c r="AB25" s="40">
         <f>SUBTOTAL(103,Декабрь[26])</f>
         <v>0</v>
       </c>
-      <c r="AC25" s="42">
+      <c r="AC25" s="40">
         <f>SUBTOTAL(103,Декабрь[27])</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="42">
+      <c r="AD25" s="40">
         <f>SUBTOTAL(103,Декабрь[28])</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="42">
+      <c r="AE25" s="40">
         <f>SUBTOTAL(103,Декабрь[29])</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="42">
+      <c r="AF25" s="40">
         <f>SUBTOTAL(103,Декабрь[30])</f>
         <v>0</v>
       </c>
-      <c r="AG25" s="42">
+      <c r="AG25" s="40">
         <f>SUBTOTAL(103,Декабрь[31])</f>
         <v>0</v>
       </c>
-      <c r="AH25" s="43">
+      <c r="AH25" s="41">
         <f>SUBTOTAL(109,Декабрь[Всего дней])</f>
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -21769,42 +21787,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3"/>
@@ -21813,39 +21831,39 @@
       <c r="B4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -22591,42 +22609,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -22635,39 +22653,39 @@
       <c r="B4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -23370,42 +23388,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -23414,39 +23432,39 @@
       <c r="B4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -24146,42 +24164,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -24190,39 +24208,39 @@
       <c r="B4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -24925,42 +24943,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -24969,39 +24987,39 @@
       <c r="B4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -25701,42 +25719,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -25745,39 +25763,39 @@
       <c r="B4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -26480,42 +26498,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -26524,39 +26542,39 @@
       <c r="B4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -27259,42 +27277,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -27303,39 +27321,39 @@
       <c r="B4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>

--- a/Посещаемость/Октябрь.xlsx
+++ b/Посещаемость/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="91">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -377,20 +377,12 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ &quot;lei&quot;_-;\-* #,##0.00\ &quot;lei&quot;_-;_-* &quot;-&quot;??\ &quot;lei&quot;_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0\ &quot;lei&quot;_-;\-* #,##0\ &quot;lei&quot;_-;_-* &quot;-&quot;\ &quot;lei&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -848,79 +840,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -930,67 +922,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="12" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="12" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="19" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="19" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="23" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="23" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="14" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="14" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="26" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="26" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="25" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="25" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="21" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="21" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="26" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="26" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="4" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="4" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="27" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="27" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="26" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="26" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1002,55 +994,46 @@
     <xf numFmtId="166" fontId="0" fillId="33" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="25" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="25" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="26" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="26" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="33" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="33" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="33" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="33" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="33" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="33" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="21" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="21" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2324,6 +2307,676 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2518,56 +3171,6 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3967,106 +4570,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4212,56 +4715,6 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5436,56 +5889,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6656,56 +7059,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -7876,56 +8229,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -9097,56 +9400,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -10317,56 +10570,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -11538,56 +11741,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -12758,56 +12911,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -13974,76 +14077,6 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -15402,56 +15435,6 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -15716,7 +15699,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="857" dataDxfId="856" totalsRowDxfId="855">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Январь" displayName="Январь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="862" dataDxfId="861" totalsRowDxfId="860">
   <autoFilter ref="B6:AH23">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -15753,103 +15736,103 @@
     <filterColumn colId="32" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowFunction="custom" dataDxfId="854" totalsRowDxfId="853" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Студент" totalsRowFunction="custom" dataDxfId="859" totalsRowDxfId="858" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="custom" dataDxfId="852" totalsRowDxfId="851">
+    <tableColumn id="2" name="1" totalsRowFunction="custom" dataDxfId="857" totalsRowDxfId="856">
       <totalsRowFormula>SUBTOTAL(103,Январь!$C$7:$C$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="2" totalsRowFunction="custom" dataDxfId="850" totalsRowDxfId="849">
+    <tableColumn id="3" name="2" totalsRowFunction="custom" dataDxfId="855" totalsRowDxfId="854">
       <totalsRowFormula>SUBTOTAL(103,Январь!$D$7:$D$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="3" totalsRowFunction="custom" dataDxfId="848" totalsRowDxfId="847">
+    <tableColumn id="4" name="3" totalsRowFunction="custom" dataDxfId="853" totalsRowDxfId="852">
       <totalsRowFormula>SUBTOTAL(103,Январь!$E$7:$E$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="4" totalsRowFunction="custom" dataDxfId="846" totalsRowDxfId="845">
+    <tableColumn id="5" name="4" totalsRowFunction="custom" dataDxfId="851" totalsRowDxfId="850">
       <totalsRowFormula>SUBTOTAL(103,Январь!$F$7:$F$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="5" totalsRowFunction="custom" totalsRowDxfId="844">
+    <tableColumn id="6" name="5" totalsRowFunction="custom" totalsRowDxfId="849">
       <totalsRowFormula>SUBTOTAL(103,Январь!$G$7:$G$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="6" totalsRowFunction="custom" dataDxfId="843" totalsRowDxfId="842">
+    <tableColumn id="7" name="6" totalsRowFunction="custom" dataDxfId="848" totalsRowDxfId="847">
       <totalsRowFormula>SUBTOTAL(103,Январь!$H$7:$H$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="7" totalsRowFunction="custom" dataDxfId="841" totalsRowDxfId="840">
+    <tableColumn id="8" name="7" totalsRowFunction="custom" dataDxfId="846" totalsRowDxfId="845">
       <totalsRowFormula>SUBTOTAL(103,Январь!$I$7:$I$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="8" totalsRowFunction="custom" dataDxfId="839" totalsRowDxfId="838">
+    <tableColumn id="9" name="8" totalsRowFunction="custom" dataDxfId="844" totalsRowDxfId="843">
       <totalsRowFormula>SUBTOTAL(103,Январь!$J$7:$J$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="9" totalsRowFunction="custom" dataDxfId="837" totalsRowDxfId="836">
+    <tableColumn id="10" name="9" totalsRowFunction="custom" dataDxfId="842" totalsRowDxfId="841">
       <totalsRowFormula>SUBTOTAL(103,Январь!$K$7:$K$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="10" totalsRowFunction="custom" dataDxfId="835" totalsRowDxfId="834">
+    <tableColumn id="11" name="10" totalsRowFunction="custom" dataDxfId="840" totalsRowDxfId="839">
       <totalsRowFormula>SUBTOTAL(103,Январь!$L$7:$L$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="11" totalsRowFunction="custom" dataDxfId="833" totalsRowDxfId="832">
+    <tableColumn id="12" name="11" totalsRowFunction="custom" dataDxfId="838" totalsRowDxfId="837">
       <totalsRowFormula>SUBTOTAL(103,Январь!$M$7:$M$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="12" totalsRowFunction="custom" dataDxfId="831" totalsRowDxfId="830">
+    <tableColumn id="13" name="12" totalsRowFunction="custom" dataDxfId="836" totalsRowDxfId="835">
       <totalsRowFormula>SUBTOTAL(103,Январь!$N$7:$N$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" name="13" totalsRowFunction="custom" dataDxfId="829" totalsRowDxfId="828">
+    <tableColumn id="14" name="13" totalsRowFunction="custom" dataDxfId="834" totalsRowDxfId="833">
       <totalsRowFormula>SUBTOTAL(103,Январь!$O$7:$O$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" name="14" totalsRowFunction="custom" dataDxfId="827" totalsRowDxfId="826">
+    <tableColumn id="15" name="14" totalsRowFunction="custom" dataDxfId="832" totalsRowDxfId="831">
       <totalsRowFormula>SUBTOTAL(103,Январь!$P$7:$P$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" name="15" totalsRowFunction="custom" dataDxfId="825" totalsRowDxfId="824">
+    <tableColumn id="16" name="15" totalsRowFunction="custom" dataDxfId="830" totalsRowDxfId="829">
       <totalsRowFormula>SUBTOTAL(103,Январь!$Q$7:$Q$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" name="16" totalsRowFunction="custom" dataDxfId="823" totalsRowDxfId="822">
+    <tableColumn id="17" name="16" totalsRowFunction="custom" dataDxfId="828" totalsRowDxfId="827">
       <totalsRowFormula>SUBTOTAL(103,Январь!$R$7:$R$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="17" totalsRowFunction="custom" dataDxfId="821" totalsRowDxfId="820">
+    <tableColumn id="18" name="17" totalsRowFunction="custom" dataDxfId="826" totalsRowDxfId="825">
       <totalsRowFormula>SUBTOTAL(103,Январь!$S$7:$S$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" name="18" totalsRowFunction="custom" dataDxfId="819" totalsRowDxfId="818">
+    <tableColumn id="19" name="18" totalsRowFunction="custom" dataDxfId="824" totalsRowDxfId="823">
       <totalsRowFormula>SUBTOTAL(103,Январь!$T$7:$T$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" name="19" totalsRowFunction="custom" dataDxfId="817" totalsRowDxfId="816">
+    <tableColumn id="20" name="19" totalsRowFunction="custom" dataDxfId="822" totalsRowDxfId="821">
       <totalsRowFormula>SUBTOTAL(103,Январь!$U$7:$U$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" name="20" totalsRowFunction="custom" dataDxfId="815" totalsRowDxfId="814">
+    <tableColumn id="21" name="20" totalsRowFunction="custom" dataDxfId="820" totalsRowDxfId="819">
       <totalsRowFormula>SUBTOTAL(103,Январь!$V$7:$V$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" name="21" totalsRowFunction="custom" dataDxfId="813" totalsRowDxfId="812">
+    <tableColumn id="22" name="21" totalsRowFunction="custom" dataDxfId="818" totalsRowDxfId="817">
       <totalsRowFormula>SUBTOTAL(103,Январь!$W$7:$W$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" name="22" totalsRowFunction="custom" dataDxfId="811" totalsRowDxfId="810">
+    <tableColumn id="23" name="22" totalsRowFunction="custom" dataDxfId="816" totalsRowDxfId="815">
       <totalsRowFormula>SUBTOTAL(103,Январь!$X$7:$X$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="23" totalsRowFunction="custom" dataDxfId="809" totalsRowDxfId="808">
+    <tableColumn id="24" name="23" totalsRowFunction="custom" dataDxfId="814" totalsRowDxfId="813">
       <totalsRowFormula>SUBTOTAL(103,Январь!$Y$7:$Y$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" name="24" totalsRowFunction="custom" dataDxfId="807" totalsRowDxfId="806">
+    <tableColumn id="25" name="24" totalsRowFunction="custom" dataDxfId="812" totalsRowDxfId="811">
       <totalsRowFormula>SUBTOTAL(103,Январь!$Z$7:$Z$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" name="25" totalsRowFunction="custom" dataDxfId="805" totalsRowDxfId="804">
+    <tableColumn id="26" name="25" totalsRowFunction="custom" dataDxfId="810" totalsRowDxfId="809">
       <totalsRowFormula>SUBTOTAL(103,Январь!$AA$7:$AA$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" name="26" totalsRowFunction="custom" dataDxfId="803" totalsRowDxfId="802">
+    <tableColumn id="27" name="26" totalsRowFunction="custom" dataDxfId="808" totalsRowDxfId="807">
       <totalsRowFormula>SUBTOTAL(103,Январь!$AB$7:$AB$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="28" name="27" totalsRowFunction="custom" dataDxfId="801" totalsRowDxfId="800">
+    <tableColumn id="28" name="27" totalsRowFunction="custom" dataDxfId="806" totalsRowDxfId="805">
       <totalsRowFormula>SUBTOTAL(103,Январь!$AC$7:$AC$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" name="28" totalsRowFunction="custom" dataDxfId="799" totalsRowDxfId="798">
+    <tableColumn id="29" name="28" totalsRowFunction="custom" dataDxfId="804" totalsRowDxfId="803">
       <totalsRowFormula>SUBTOTAL(103,Январь!$AD$7:$AD$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" name="29" totalsRowFunction="custom" dataDxfId="797" totalsRowDxfId="796">
+    <tableColumn id="30" name="29" totalsRowFunction="custom" dataDxfId="802" totalsRowDxfId="801">
       <totalsRowFormula>SUBTOTAL(103,Январь!$AE$7:$AE$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" name="30" totalsRowFunction="custom" dataDxfId="795" totalsRowDxfId="794">
+    <tableColumn id="31" name="30" totalsRowFunction="custom" dataDxfId="800" totalsRowDxfId="799">
       <totalsRowFormula>SUBTOTAL(103,Январь!$AF$7:$AF$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" name="31" totalsRowFunction="custom" dataDxfId="793" totalsRowDxfId="792">
+    <tableColumn id="32" name="31" totalsRowFunction="custom" dataDxfId="798" totalsRowDxfId="797">
       <totalsRowFormula>SUBTOTAL(103,Январь!$AG$7:$AG$23)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="791" totalsRowDxfId="790">
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="796" totalsRowDxfId="795">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15863,41 +15846,41 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="190" dataDxfId="189" totalsRowCellStyle="Стиль 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Октябрь" displayName="Октябрь" ref="B6:AH24" totalsRowCount="1" headerRowDxfId="242" dataDxfId="241" totalsRowCellStyle="Стиль 1">
   <tableColumns count="33">
-    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="188" dataCellStyle="Стиль 1"/>
-    <tableColumn id="2" name="1" dataDxfId="187" dataCellStyle="Стиль 1"/>
-    <tableColumn id="3" name="2" dataDxfId="186" dataCellStyle="Стиль 1"/>
-    <tableColumn id="4" name="3" dataDxfId="185" dataCellStyle="Стиль 1"/>
-    <tableColumn id="5" name="4" dataDxfId="184" dataCellStyle="Стиль 1"/>
-    <tableColumn id="6" name="5" dataDxfId="183" dataCellStyle="Стиль 1"/>
-    <tableColumn id="7" name="6" dataDxfId="182" dataCellStyle="Стиль 1"/>
-    <tableColumn id="8" name="7" dataDxfId="181" dataCellStyle="Стиль 1"/>
-    <tableColumn id="9" name="8" dataDxfId="180" dataCellStyle="Стиль 1"/>
-    <tableColumn id="10" name="9" dataDxfId="179" dataCellStyle="Стиль 1"/>
-    <tableColumn id="11" name="10" dataDxfId="178" dataCellStyle="Стиль 1"/>
-    <tableColumn id="12" name="11" dataDxfId="177" dataCellStyle="Стиль 1"/>
-    <tableColumn id="13" name="12" dataDxfId="176" dataCellStyle="Стиль 1"/>
-    <tableColumn id="14" name="13" dataDxfId="175" dataCellStyle="Стиль 1"/>
-    <tableColumn id="15" name="14" dataDxfId="174" dataCellStyle="Стиль 1"/>
-    <tableColumn id="16" name="15" dataDxfId="173" dataCellStyle="Стиль 1"/>
-    <tableColumn id="17" name="16" dataDxfId="172" dataCellStyle="Стиль 1"/>
-    <tableColumn id="18" name="17" dataDxfId="171" dataCellStyle="Стиль 1"/>
-    <tableColumn id="19" name="18" dataDxfId="170" dataCellStyle="Стиль 1"/>
-    <tableColumn id="20" name="19" dataDxfId="169" dataCellStyle="Стиль 1"/>
-    <tableColumn id="21" name="20" dataDxfId="168" dataCellStyle="Стиль 1"/>
-    <tableColumn id="22" name="21" dataDxfId="167" dataCellStyle="Стиль 1"/>
-    <tableColumn id="23" name="22" dataDxfId="166" dataCellStyle="Стиль 1"/>
-    <tableColumn id="24" name="23" dataDxfId="165" dataCellStyle="Стиль 1"/>
-    <tableColumn id="25" name="24" dataDxfId="164" dataCellStyle="Стиль 1"/>
-    <tableColumn id="26" name="25" dataDxfId="163" dataCellStyle="Стиль 1"/>
-    <tableColumn id="27" name="26" dataDxfId="162" dataCellStyle="Стиль 1"/>
-    <tableColumn id="28" name="27" dataDxfId="161" dataCellStyle="Стиль 1"/>
-    <tableColumn id="29" name="28" dataDxfId="160" dataCellStyle="Стиль 1"/>
-    <tableColumn id="30" name="29" dataDxfId="159" dataCellStyle="Стиль 1"/>
-    <tableColumn id="31" name="30" dataDxfId="158" dataCellStyle="Стиль 1"/>
-    <tableColumn id="32" name="31" dataDxfId="157" dataCellStyle="Стиль 1"/>
-    <tableColumn id="33" name="Всего дней" dataDxfId="156" totalsRowDxfId="155" dataCellStyle="Стиль 1">
+    <tableColumn id="1" name="Студент" totalsRowLabel="Штейгер Даниил Владимирович" dataDxfId="240" dataCellStyle="Стиль 1"/>
+    <tableColumn id="2" name="1" dataDxfId="239" dataCellStyle="Стиль 1"/>
+    <tableColumn id="3" name="2" dataDxfId="238" dataCellStyle="Стиль 1"/>
+    <tableColumn id="4" name="3" dataDxfId="237" dataCellStyle="Стиль 1"/>
+    <tableColumn id="5" name="4" dataDxfId="236" dataCellStyle="Стиль 1"/>
+    <tableColumn id="6" name="5" dataDxfId="235" dataCellStyle="Стиль 1"/>
+    <tableColumn id="7" name="6" dataDxfId="234" dataCellStyle="Стиль 1"/>
+    <tableColumn id="8" name="7" dataDxfId="233" dataCellStyle="Стиль 1"/>
+    <tableColumn id="9" name="8" dataDxfId="232" dataCellStyle="Стиль 1"/>
+    <tableColumn id="10" name="9" dataDxfId="231" dataCellStyle="Стиль 1"/>
+    <tableColumn id="11" name="10" dataDxfId="230" dataCellStyle="Стиль 1"/>
+    <tableColumn id="12" name="11" dataDxfId="229" dataCellStyle="Стиль 1"/>
+    <tableColumn id="13" name="12" dataDxfId="228" dataCellStyle="Стиль 1"/>
+    <tableColumn id="14" name="13" dataDxfId="227" dataCellStyle="Стиль 1"/>
+    <tableColumn id="15" name="14" dataDxfId="226" dataCellStyle="Стиль 1"/>
+    <tableColumn id="16" name="15" dataDxfId="225" dataCellStyle="Стиль 1"/>
+    <tableColumn id="17" name="16" dataDxfId="224" dataCellStyle="Стиль 1"/>
+    <tableColumn id="18" name="17" dataDxfId="223" dataCellStyle="Стиль 1"/>
+    <tableColumn id="19" name="18" dataDxfId="222" dataCellStyle="Стиль 1"/>
+    <tableColumn id="20" name="19" dataDxfId="221" dataCellStyle="Стиль 1"/>
+    <tableColumn id="21" name="20" dataDxfId="220" dataCellStyle="Стиль 1"/>
+    <tableColumn id="22" name="21" dataDxfId="219" dataCellStyle="Стиль 1"/>
+    <tableColumn id="23" name="22" dataDxfId="218" dataCellStyle="Стиль 1"/>
+    <tableColumn id="24" name="23" dataDxfId="217" dataCellStyle="Стиль 1"/>
+    <tableColumn id="25" name="24" dataDxfId="216" dataCellStyle="Стиль 1"/>
+    <tableColumn id="26" name="25" dataDxfId="215" dataCellStyle="Стиль 1"/>
+    <tableColumn id="27" name="26" dataDxfId="214" dataCellStyle="Стиль 1"/>
+    <tableColumn id="28" name="27" dataDxfId="213" dataCellStyle="Стиль 1"/>
+    <tableColumn id="29" name="28" dataDxfId="212" dataCellStyle="Стиль 1"/>
+    <tableColumn id="30" name="29" dataDxfId="211" dataCellStyle="Стиль 1"/>
+    <tableColumn id="31" name="30" dataDxfId="210" dataCellStyle="Стиль 1"/>
+    <tableColumn id="32" name="31" dataDxfId="209" dataCellStyle="Стиль 1"/>
+    <tableColumn id="33" name="Всего дней" dataDxfId="208" totalsRowDxfId="207" dataCellStyle="Стиль 1">
       <calculatedColumnFormula>COUNTA(Январь!$C7:$AG7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15911,43 +15894,43 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="144" dataDxfId="143" totalsRowDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Ноябрь" displayName="Ноябрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="206" dataDxfId="205" totalsRowDxfId="204">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="140" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="203" totalsRowDxfId="202" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="123" totalsRowDxfId="122"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="109" totalsRowDxfId="108"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="107" totalsRowDxfId="106"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="105" totalsRowDxfId="104"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="103" totalsRowDxfId="102"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="99" totalsRowDxfId="98"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="97" totalsRowDxfId="96"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="87" totalsRowDxfId="86"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="85" totalsRowDxfId="84"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="76">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="201" totalsRowDxfId="200"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="199" totalsRowDxfId="198"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="197" totalsRowDxfId="196"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="195" totalsRowDxfId="194"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="193" totalsRowDxfId="192"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="191" totalsRowDxfId="190"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="189" totalsRowDxfId="188"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="187" totalsRowDxfId="186"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="185" totalsRowDxfId="184"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="183" totalsRowDxfId="182"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="181" totalsRowDxfId="180"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="179" totalsRowDxfId="178"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="177" totalsRowDxfId="176"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="175" totalsRowDxfId="174"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="173" totalsRowDxfId="172"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="138">
       <calculatedColumnFormula>COUNTA(Ноябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15961,43 +15944,43 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="70" dataDxfId="69" totalsRowDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Декабрь" displayName="Декабрь" ref="B6:AH25" totalsRowCount="1" headerRowDxfId="137" dataDxfId="136" totalsRowDxfId="135">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="32" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="134" totalsRowDxfId="32" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="66" totalsRowDxfId="31"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="65" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="29"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="63" totalsRowDxfId="28"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="26"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="60" totalsRowDxfId="25"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="24"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="23"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="57" totalsRowDxfId="22"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="21"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="55" totalsRowDxfId="20"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="19"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="18"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="17"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="16"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="15"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="14"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="13"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="12"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="11"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="10"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="9"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="8"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="7"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="6"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="5"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="39" totalsRowDxfId="4"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="3"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="37" totalsRowDxfId="2"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="36" totalsRowDxfId="1"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="0">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="133" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="132" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="131" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="130" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="129" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="128" totalsRowDxfId="26"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="25"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="126" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="23"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="124" totalsRowDxfId="22"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="123" totalsRowDxfId="21"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="122" totalsRowDxfId="20"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="121" totalsRowDxfId="19"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="120" totalsRowDxfId="18"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="119" totalsRowDxfId="17"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="118" totalsRowDxfId="16"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="117" totalsRowDxfId="15"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="116" totalsRowDxfId="14"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="115" totalsRowDxfId="13"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="114" totalsRowDxfId="12"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="113" totalsRowDxfId="11"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="112" totalsRowDxfId="10"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="9"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="110" totalsRowDxfId="8"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="109" totalsRowDxfId="7"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="108" totalsRowDxfId="6"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="107" totalsRowDxfId="5"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="106" totalsRowDxfId="4"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="105" totalsRowDxfId="3"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="104" totalsRowDxfId="2"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="103" totalsRowDxfId="1"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="0">
       <calculatedColumnFormula>COUNTA(Декабрь[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16011,10 +15994,10 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="34" dataCellStyle="Сотрудник">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ИмяСотрудника" displayName="ИмяСотрудника" ref="B3:B19" totalsRowShown="0" dataDxfId="101" dataCellStyle="Сотрудник">
   <autoFilter ref="B3:B19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Имена сотрудников" dataDxfId="33" dataCellStyle="Сотрудник"/>
+    <tableColumn id="1" name="Имена сотрудников" dataDxfId="100" dataCellStyle="Сотрудник"/>
   </tableColumns>
   <tableStyleInfo name="Таблица отсутствия сотрудников" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -16026,43 +16009,43 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="782" dataDxfId="781" totalsRowDxfId="780">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Февраль" displayName="Февраль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="794" dataDxfId="793" totalsRowDxfId="792">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="779" totalsRowDxfId="778" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="791" totalsRowDxfId="790" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="777" totalsRowDxfId="776"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="775" totalsRowDxfId="774"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="773" totalsRowDxfId="772"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="771" totalsRowDxfId="770"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="769" totalsRowDxfId="768"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="767" totalsRowDxfId="766"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="765" totalsRowDxfId="764"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="763" totalsRowDxfId="762"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="761" totalsRowDxfId="760"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="759" totalsRowDxfId="758"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="757" totalsRowDxfId="756"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="755" totalsRowDxfId="754"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="753" totalsRowDxfId="752"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="751" totalsRowDxfId="750"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="749" totalsRowDxfId="748"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="747" totalsRowDxfId="746"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="745" totalsRowDxfId="744"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="743" totalsRowDxfId="742"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="741" totalsRowDxfId="740"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="739" totalsRowDxfId="738"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="737" totalsRowDxfId="736"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="735" totalsRowDxfId="734"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="733" totalsRowDxfId="732"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="731" totalsRowDxfId="730"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="729" totalsRowDxfId="728"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="727" totalsRowDxfId="726"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="725" totalsRowDxfId="724"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="723" totalsRowDxfId="722"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="721" totalsRowDxfId="720"/>
-    <tableColumn id="31" name=" " dataDxfId="719" totalsRowDxfId="718"/>
-    <tableColumn id="32" name="  " dataDxfId="717" totalsRowDxfId="716"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="715" totalsRowDxfId="714">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="789" totalsRowDxfId="788"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="787" totalsRowDxfId="786"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="785" totalsRowDxfId="784"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="783" totalsRowDxfId="782"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="781" totalsRowDxfId="780"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="779" totalsRowDxfId="778"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="777" totalsRowDxfId="776"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="775" totalsRowDxfId="774"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="773" totalsRowDxfId="772"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="771" totalsRowDxfId="770"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="769" totalsRowDxfId="768"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="767" totalsRowDxfId="766"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="765" totalsRowDxfId="764"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="763" totalsRowDxfId="762"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="761" totalsRowDxfId="760"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="759" totalsRowDxfId="758"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="757" totalsRowDxfId="756"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="755" totalsRowDxfId="754"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="753" totalsRowDxfId="752"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="751" totalsRowDxfId="750"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="749" totalsRowDxfId="748"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="747" totalsRowDxfId="746"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="745" totalsRowDxfId="744"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="743" totalsRowDxfId="742"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="741" totalsRowDxfId="740"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="739" totalsRowDxfId="738"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="737" totalsRowDxfId="736"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="735" totalsRowDxfId="734"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="733" totalsRowDxfId="732"/>
+    <tableColumn id="31" name=" " dataDxfId="731" totalsRowDxfId="730"/>
+    <tableColumn id="32" name="  " dataDxfId="729" totalsRowDxfId="728"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="727" totalsRowDxfId="726">
       <calculatedColumnFormula>COUNTA(Февраль[[#This Row],[1]:[29]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16076,43 +16059,43 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="708" dataDxfId="707" totalsRowDxfId="706">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Март" displayName="Март" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="725" dataDxfId="724" totalsRowDxfId="723">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="705" totalsRowDxfId="704" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="722" totalsRowDxfId="721" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="703" totalsRowDxfId="702"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="701" totalsRowDxfId="700"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="699" totalsRowDxfId="698"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="697" totalsRowDxfId="696"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="695" totalsRowDxfId="694"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="693" totalsRowDxfId="692"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="691" totalsRowDxfId="690"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="689" totalsRowDxfId="688"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="687" totalsRowDxfId="686"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="685" totalsRowDxfId="684"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="683" totalsRowDxfId="682"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="681" totalsRowDxfId="680"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="679" totalsRowDxfId="678"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="677" totalsRowDxfId="676"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="675" totalsRowDxfId="674"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="673" totalsRowDxfId="672"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="671" totalsRowDxfId="670"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="669" totalsRowDxfId="668"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="667" totalsRowDxfId="666"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="665" totalsRowDxfId="664"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="663" totalsRowDxfId="662"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="661" totalsRowDxfId="660"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="659" totalsRowDxfId="658"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="657" totalsRowDxfId="656"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="655" totalsRowDxfId="654"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="653" totalsRowDxfId="652"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="651" totalsRowDxfId="650"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="649" totalsRowDxfId="648"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="647" totalsRowDxfId="646"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="645" totalsRowDxfId="644"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="643" totalsRowDxfId="642"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="641" totalsRowDxfId="640">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="720" totalsRowDxfId="719"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="718" totalsRowDxfId="717"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="716" totalsRowDxfId="715"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="714" totalsRowDxfId="713"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="712" totalsRowDxfId="711"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="710" totalsRowDxfId="709"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="708" totalsRowDxfId="707"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="706" totalsRowDxfId="705"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="704" totalsRowDxfId="703"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="702" totalsRowDxfId="701"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="700" totalsRowDxfId="699"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="698" totalsRowDxfId="697"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="696" totalsRowDxfId="695"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="694" totalsRowDxfId="693"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="692" totalsRowDxfId="691"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="690" totalsRowDxfId="689"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="688" totalsRowDxfId="687"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="686" totalsRowDxfId="685"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="684" totalsRowDxfId="683"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="682" totalsRowDxfId="681"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="680" totalsRowDxfId="679"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="678" totalsRowDxfId="677"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="676" totalsRowDxfId="675"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="674" totalsRowDxfId="673"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="672" totalsRowDxfId="671"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="670" totalsRowDxfId="669"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="668" totalsRowDxfId="667"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="666" totalsRowDxfId="665"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="664" totalsRowDxfId="663"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="662" totalsRowDxfId="661"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="660" totalsRowDxfId="659"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="658" totalsRowDxfId="657">
       <calculatedColumnFormula>COUNTA(Март[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16126,45 +16109,45 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="634" dataDxfId="633" totalsRowDxfId="632">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Апрель" displayName="Апрель" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="656" dataDxfId="655" totalsRowDxfId="654">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="631" totalsRowDxfId="630" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="653" totalsRowDxfId="652" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="629" totalsRowDxfId="628"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="627" totalsRowDxfId="626"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="625" totalsRowDxfId="624"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="623" totalsRowDxfId="622"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="621" totalsRowDxfId="620"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="619" totalsRowDxfId="618"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="617" totalsRowDxfId="616"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="615" totalsRowDxfId="614"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="613" totalsRowDxfId="612"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="611" totalsRowDxfId="610"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="609" totalsRowDxfId="608"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="607" totalsRowDxfId="606"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="605" totalsRowDxfId="604"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="603" totalsRowDxfId="602"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="601" totalsRowDxfId="600"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="599" totalsRowDxfId="598"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="597" totalsRowDxfId="596"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="595" totalsRowDxfId="594"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="593" totalsRowDxfId="592"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="591" totalsRowDxfId="590"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="589" totalsRowDxfId="588"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="587" totalsRowDxfId="586"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="585" totalsRowDxfId="584"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="583" totalsRowDxfId="582"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="581" totalsRowDxfId="580"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="579" totalsRowDxfId="578"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="577" totalsRowDxfId="576"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="575" totalsRowDxfId="574"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="573" totalsRowDxfId="572"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="571" totalsRowDxfId="570"/>
-    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="569" totalsRowDxfId="568">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="651" totalsRowDxfId="650"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="649" totalsRowDxfId="648"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="647" totalsRowDxfId="646"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="645" totalsRowDxfId="644"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="643" totalsRowDxfId="642"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="641" totalsRowDxfId="640"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="639" totalsRowDxfId="638"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="637" totalsRowDxfId="636"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="635" totalsRowDxfId="634"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="633" totalsRowDxfId="632"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="631" totalsRowDxfId="630"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="629" totalsRowDxfId="628"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="627" totalsRowDxfId="626"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="625" totalsRowDxfId="624"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="623" totalsRowDxfId="622"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="621" totalsRowDxfId="620"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="619" totalsRowDxfId="618"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="617" totalsRowDxfId="616"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="615" totalsRowDxfId="614"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="613" totalsRowDxfId="612"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="611" totalsRowDxfId="610"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="609" totalsRowDxfId="608"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="607" totalsRowDxfId="606"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="605" totalsRowDxfId="604"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="603" totalsRowDxfId="602"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="601" totalsRowDxfId="600"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="599" totalsRowDxfId="598"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="597" totalsRowDxfId="596"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="595" totalsRowDxfId="594"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="593" totalsRowDxfId="592"/>
+    <tableColumn id="32" name=" " totalsRowFunction="custom" dataDxfId="591" totalsRowDxfId="590">
       <totalsRowFormula>SUBTOTAL(103,Апрель[30])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="567" totalsRowDxfId="566">
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="589" totalsRowDxfId="588">
       <calculatedColumnFormula>COUNTA(Апрель[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16178,43 +16161,43 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="560" dataDxfId="559" totalsRowDxfId="558">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Май" displayName="Май" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="587" dataDxfId="586" totalsRowDxfId="585">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="557" totalsRowDxfId="556" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="584" totalsRowDxfId="583" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="555" totalsRowDxfId="554"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="553" totalsRowDxfId="552"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="551" totalsRowDxfId="550"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="549" totalsRowDxfId="548"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="547" totalsRowDxfId="546"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="545" totalsRowDxfId="544"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="543" totalsRowDxfId="542"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="541" totalsRowDxfId="540"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="539" totalsRowDxfId="538"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="537" totalsRowDxfId="536"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="535" totalsRowDxfId="534"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="533" totalsRowDxfId="532"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="531" totalsRowDxfId="530"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="529" totalsRowDxfId="528"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="527" totalsRowDxfId="526"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="525" totalsRowDxfId="524"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="523" totalsRowDxfId="522"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="521" totalsRowDxfId="520"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="519" totalsRowDxfId="518"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="517" totalsRowDxfId="516"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="515" totalsRowDxfId="514"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="513" totalsRowDxfId="512"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="511" totalsRowDxfId="510"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="509" totalsRowDxfId="508"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="507" totalsRowDxfId="506"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="505" totalsRowDxfId="504"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="503" totalsRowDxfId="502"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="501" totalsRowDxfId="500"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="499" totalsRowDxfId="498"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="497" totalsRowDxfId="496"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="495" totalsRowDxfId="494"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="493" totalsRowDxfId="492">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="582" totalsRowDxfId="581"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="580" totalsRowDxfId="579"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="578" totalsRowDxfId="577"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="576" totalsRowDxfId="575"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="574" totalsRowDxfId="573"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="572" totalsRowDxfId="571"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="570" totalsRowDxfId="569"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="568" totalsRowDxfId="567"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="566" totalsRowDxfId="565"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="564" totalsRowDxfId="563"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="562" totalsRowDxfId="561"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="560" totalsRowDxfId="559"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="558" totalsRowDxfId="557"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="556" totalsRowDxfId="555"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="554" totalsRowDxfId="553"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="552" totalsRowDxfId="551"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="550" totalsRowDxfId="549"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="548" totalsRowDxfId="547"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="546" totalsRowDxfId="545"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="544" totalsRowDxfId="543"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="542" totalsRowDxfId="541"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="540" totalsRowDxfId="539"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="538" totalsRowDxfId="537"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="536" totalsRowDxfId="535"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="534" totalsRowDxfId="533"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="532" totalsRowDxfId="531"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="530" totalsRowDxfId="529"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="528" totalsRowDxfId="527"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="526" totalsRowDxfId="525"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="524" totalsRowDxfId="523"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="522" totalsRowDxfId="521"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="520" totalsRowDxfId="519">
       <calculatedColumnFormula>COUNTA(Май[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16228,43 +16211,43 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="486" dataDxfId="485" totalsRowDxfId="484">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Июнь" displayName="Июнь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="518" dataDxfId="517" totalsRowDxfId="516">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="483" totalsRowDxfId="482" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="515" totalsRowDxfId="514" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="481" totalsRowDxfId="480"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="479" totalsRowDxfId="478"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="477" totalsRowDxfId="476"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="475" totalsRowDxfId="474"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="473" totalsRowDxfId="472"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="471" totalsRowDxfId="470"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="469" totalsRowDxfId="468"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="467" totalsRowDxfId="466"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="465" totalsRowDxfId="464"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="463" totalsRowDxfId="462"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="461" totalsRowDxfId="460"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="459" totalsRowDxfId="458"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="457" totalsRowDxfId="456"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="455" totalsRowDxfId="454"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="453" totalsRowDxfId="452"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="451" totalsRowDxfId="450"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="449" totalsRowDxfId="448"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="447" totalsRowDxfId="446"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="445" totalsRowDxfId="444"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="443" totalsRowDxfId="442"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="441" totalsRowDxfId="440"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="439" totalsRowDxfId="438"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="437" totalsRowDxfId="436"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="435" totalsRowDxfId="434"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="433" totalsRowDxfId="432"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="431" totalsRowDxfId="430"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="429" totalsRowDxfId="428"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="427" totalsRowDxfId="426"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="425" totalsRowDxfId="424"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="423" totalsRowDxfId="422"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="421" totalsRowDxfId="420"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="419" totalsRowDxfId="418">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="513" totalsRowDxfId="512"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="511" totalsRowDxfId="510"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="509" totalsRowDxfId="508"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="507" totalsRowDxfId="506"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="505" totalsRowDxfId="504"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="503" totalsRowDxfId="502"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="501" totalsRowDxfId="500"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="499" totalsRowDxfId="498"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="497" totalsRowDxfId="496"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="495" totalsRowDxfId="494"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="493" totalsRowDxfId="492"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="491" totalsRowDxfId="490"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="489" totalsRowDxfId="488"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="487" totalsRowDxfId="486"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="485" totalsRowDxfId="484"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="483" totalsRowDxfId="482"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="481" totalsRowDxfId="480"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="479" totalsRowDxfId="478"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="477" totalsRowDxfId="476"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="475" totalsRowDxfId="474"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="473" totalsRowDxfId="472"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="471" totalsRowDxfId="470"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="469" totalsRowDxfId="468"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="467" totalsRowDxfId="466"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="465" totalsRowDxfId="464"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="463" totalsRowDxfId="462"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="461" totalsRowDxfId="460"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="459" totalsRowDxfId="458"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="457" totalsRowDxfId="456"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="455" totalsRowDxfId="454"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="453" totalsRowDxfId="452"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="451" totalsRowDxfId="450">
       <calculatedColumnFormula>COUNTA(Июнь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16278,43 +16261,43 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="412" dataDxfId="411" totalsRowDxfId="410">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Июль" displayName="Июль" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="449" dataDxfId="448" totalsRowDxfId="447">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="409" totalsRowDxfId="408" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="446" totalsRowDxfId="445" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="407" totalsRowDxfId="406"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="405" totalsRowDxfId="404"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="403" totalsRowDxfId="402"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="401" totalsRowDxfId="400"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="399" totalsRowDxfId="398"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="397" totalsRowDxfId="396"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="395" totalsRowDxfId="394"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="393" totalsRowDxfId="392"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="391" totalsRowDxfId="390"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="389" totalsRowDxfId="388"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="387" totalsRowDxfId="386"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="385" totalsRowDxfId="384"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="383" totalsRowDxfId="382"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="381" totalsRowDxfId="380"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="379" totalsRowDxfId="378"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="377" totalsRowDxfId="376"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="375" totalsRowDxfId="374"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="373" totalsRowDxfId="372"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="371" totalsRowDxfId="370"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="369" totalsRowDxfId="368"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="367" totalsRowDxfId="366"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="365" totalsRowDxfId="364"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="363" totalsRowDxfId="362"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="361" totalsRowDxfId="360"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="359" totalsRowDxfId="358"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="357" totalsRowDxfId="356"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="355" totalsRowDxfId="354"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="353" totalsRowDxfId="352"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="351" totalsRowDxfId="350"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="349" totalsRowDxfId="348"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="347" totalsRowDxfId="346"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="345" totalsRowDxfId="344">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="444" totalsRowDxfId="443"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="442" totalsRowDxfId="441"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="440" totalsRowDxfId="439"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="438" totalsRowDxfId="437"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="436" totalsRowDxfId="435"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="434" totalsRowDxfId="433"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="432" totalsRowDxfId="431"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="430" totalsRowDxfId="429"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="428" totalsRowDxfId="427"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="426" totalsRowDxfId="425"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="424" totalsRowDxfId="423"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="422" totalsRowDxfId="421"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="420" totalsRowDxfId="419"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="418" totalsRowDxfId="417"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="416" totalsRowDxfId="415"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="414" totalsRowDxfId="413"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="412" totalsRowDxfId="411"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="410" totalsRowDxfId="409"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="408" totalsRowDxfId="407"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="406" totalsRowDxfId="405"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="404" totalsRowDxfId="403"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="402" totalsRowDxfId="401"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="400" totalsRowDxfId="399"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="398" totalsRowDxfId="397"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="396" totalsRowDxfId="395"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="394" totalsRowDxfId="393"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="392" totalsRowDxfId="391"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="390" totalsRowDxfId="389"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="388" totalsRowDxfId="387"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="386" totalsRowDxfId="385"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="384" totalsRowDxfId="383"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="382" totalsRowDxfId="381">
       <calculatedColumnFormula>COUNTA(Июль[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16328,43 +16311,43 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="338" dataDxfId="337" totalsRowDxfId="336">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Август" displayName="Август" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="380" dataDxfId="379" totalsRowDxfId="378">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="335" totalsRowDxfId="334" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="377" totalsRowDxfId="376" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="333" totalsRowDxfId="332"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="331" totalsRowDxfId="330"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="329" totalsRowDxfId="328"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="327" totalsRowDxfId="326"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="325" totalsRowDxfId="324"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="323" totalsRowDxfId="322"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="321" totalsRowDxfId="320"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="319" totalsRowDxfId="318"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="317" totalsRowDxfId="316"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="315" totalsRowDxfId="314"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="313" totalsRowDxfId="312"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="311" totalsRowDxfId="310"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="309" totalsRowDxfId="308"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="307" totalsRowDxfId="306"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="305" totalsRowDxfId="304"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="303" totalsRowDxfId="302"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="301" totalsRowDxfId="300"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="299" totalsRowDxfId="298"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="297" totalsRowDxfId="296"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="295" totalsRowDxfId="294"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="293" totalsRowDxfId="292"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="291" totalsRowDxfId="290"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="289" totalsRowDxfId="288"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="287" totalsRowDxfId="286"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="285" totalsRowDxfId="284"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="283" totalsRowDxfId="282"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="281" totalsRowDxfId="280"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="279" totalsRowDxfId="278"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="277" totalsRowDxfId="276"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="275" totalsRowDxfId="274"/>
-    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="273" totalsRowDxfId="272"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="271" totalsRowDxfId="270">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="375" totalsRowDxfId="374"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="373" totalsRowDxfId="372"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="371" totalsRowDxfId="370"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="369" totalsRowDxfId="368"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="367" totalsRowDxfId="366"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="365" totalsRowDxfId="364"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="363" totalsRowDxfId="362"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="361" totalsRowDxfId="360"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="359" totalsRowDxfId="358"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="357" totalsRowDxfId="356"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="355" totalsRowDxfId="354"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="353" totalsRowDxfId="352"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="351" totalsRowDxfId="350"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="349" totalsRowDxfId="348"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="347" totalsRowDxfId="346"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="345" totalsRowDxfId="344"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="343" totalsRowDxfId="342"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="341" totalsRowDxfId="340"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="339" totalsRowDxfId="338"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="337" totalsRowDxfId="336"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="335" totalsRowDxfId="334"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="333" totalsRowDxfId="332"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="331" totalsRowDxfId="330"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="329" totalsRowDxfId="328"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="327" totalsRowDxfId="326"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="325" totalsRowDxfId="324"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="323" totalsRowDxfId="322"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="321" totalsRowDxfId="320"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="319" totalsRowDxfId="318"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="317" totalsRowDxfId="316"/>
+    <tableColumn id="32" name="31" totalsRowFunction="count" dataDxfId="315" totalsRowDxfId="314"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="313" totalsRowDxfId="312">
       <calculatedColumnFormula>COUNTA(Август[[#This Row],[1]:[31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16378,43 +16361,43 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="264" dataDxfId="263" totalsRowDxfId="262">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Сентябрь" displayName="Сентябрь" ref="B6:AH12" totalsRowCount="1" headerRowDxfId="311" dataDxfId="310" totalsRowDxfId="309">
   <tableColumns count="33">
-    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="261" totalsRowDxfId="260" dataCellStyle="Сотрудник">
+    <tableColumn id="1" name="Имя сотрудника" totalsRowFunction="custom" dataDxfId="308" totalsRowDxfId="307" dataCellStyle="Сотрудник">
       <totalsRowFormula>ИмяМесяца&amp;" Итог"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="259" totalsRowDxfId="258"/>
-    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="257" totalsRowDxfId="256"/>
-    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="255" totalsRowDxfId="254"/>
-    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="253" totalsRowDxfId="252"/>
-    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="251" totalsRowDxfId="250"/>
-    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="249" totalsRowDxfId="248"/>
-    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="247" totalsRowDxfId="246"/>
-    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="245" totalsRowDxfId="244"/>
-    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="243" totalsRowDxfId="242"/>
-    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="241" totalsRowDxfId="240"/>
-    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="239" totalsRowDxfId="238"/>
-    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="237" totalsRowDxfId="236"/>
-    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="235" totalsRowDxfId="234"/>
-    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="233" totalsRowDxfId="232"/>
-    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="231" totalsRowDxfId="230"/>
-    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="229" totalsRowDxfId="228"/>
-    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="227" totalsRowDxfId="226"/>
-    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="225" totalsRowDxfId="224"/>
-    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="223" totalsRowDxfId="222"/>
-    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="221" totalsRowDxfId="220"/>
-    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="219" totalsRowDxfId="218"/>
-    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="217" totalsRowDxfId="216"/>
-    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="215" totalsRowDxfId="214"/>
-    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="213" totalsRowDxfId="212"/>
-    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="211" totalsRowDxfId="210"/>
-    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="209" totalsRowDxfId="208"/>
-    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="207" totalsRowDxfId="206"/>
-    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="205" totalsRowDxfId="204"/>
-    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="203" totalsRowDxfId="202"/>
-    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="201" totalsRowDxfId="200"/>
-    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="199" totalsRowDxfId="198"/>
-    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="197" totalsRowDxfId="196">
+    <tableColumn id="2" name="1" totalsRowFunction="count" dataDxfId="306" totalsRowDxfId="305"/>
+    <tableColumn id="3" name="2" totalsRowFunction="count" dataDxfId="304" totalsRowDxfId="303"/>
+    <tableColumn id="4" name="3" totalsRowFunction="count" dataDxfId="302" totalsRowDxfId="301"/>
+    <tableColumn id="5" name="4" totalsRowFunction="count" dataDxfId="300" totalsRowDxfId="299"/>
+    <tableColumn id="6" name="5" totalsRowFunction="count" dataDxfId="298" totalsRowDxfId="297"/>
+    <tableColumn id="7" name="6" totalsRowFunction="count" dataDxfId="296" totalsRowDxfId="295"/>
+    <tableColumn id="8" name="7" totalsRowFunction="count" dataDxfId="294" totalsRowDxfId="293"/>
+    <tableColumn id="9" name="8" totalsRowFunction="count" dataDxfId="292" totalsRowDxfId="291"/>
+    <tableColumn id="10" name="9" totalsRowFunction="count" dataDxfId="290" totalsRowDxfId="289"/>
+    <tableColumn id="11" name="10" totalsRowFunction="count" dataDxfId="288" totalsRowDxfId="287"/>
+    <tableColumn id="12" name="11" totalsRowFunction="count" dataDxfId="286" totalsRowDxfId="285"/>
+    <tableColumn id="13" name="12" totalsRowFunction="count" dataDxfId="284" totalsRowDxfId="283"/>
+    <tableColumn id="14" name="13" totalsRowFunction="count" dataDxfId="282" totalsRowDxfId="281"/>
+    <tableColumn id="15" name="14" totalsRowFunction="count" dataDxfId="280" totalsRowDxfId="279"/>
+    <tableColumn id="16" name="15" totalsRowFunction="count" dataDxfId="278" totalsRowDxfId="277"/>
+    <tableColumn id="17" name="16" totalsRowFunction="count" dataDxfId="276" totalsRowDxfId="275"/>
+    <tableColumn id="18" name="17" totalsRowFunction="count" dataDxfId="274" totalsRowDxfId="273"/>
+    <tableColumn id="19" name="18" totalsRowFunction="count" dataDxfId="272" totalsRowDxfId="271"/>
+    <tableColumn id="20" name="19" totalsRowFunction="count" dataDxfId="270" totalsRowDxfId="269"/>
+    <tableColumn id="21" name="20" totalsRowFunction="count" dataDxfId="268" totalsRowDxfId="267"/>
+    <tableColumn id="22" name="21" totalsRowFunction="count" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="23" name="22" totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263"/>
+    <tableColumn id="24" name="23" totalsRowFunction="count" dataDxfId="262" totalsRowDxfId="261"/>
+    <tableColumn id="25" name="24" totalsRowFunction="count" dataDxfId="260" totalsRowDxfId="259"/>
+    <tableColumn id="26" name="25" totalsRowFunction="count" dataDxfId="258" totalsRowDxfId="257"/>
+    <tableColumn id="27" name="26" totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
+    <tableColumn id="28" name="27" totalsRowFunction="count" dataDxfId="254" totalsRowDxfId="253"/>
+    <tableColumn id="29" name="28" totalsRowFunction="count" dataDxfId="252" totalsRowDxfId="251"/>
+    <tableColumn id="30" name="29" totalsRowFunction="count" dataDxfId="250" totalsRowDxfId="249"/>
+    <tableColumn id="31" name="30" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247"/>
+    <tableColumn id="32" name=" " totalsRowFunction="count" dataDxfId="246" totalsRowDxfId="245"/>
+    <tableColumn id="33" name="Всего дней" totalsRowFunction="sum" dataDxfId="244" totalsRowDxfId="243">
       <calculatedColumnFormula>COUNTA(Сентябрь[[#This Row],[1]:[30]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16687,42 +16670,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AH3" s="19" t="s">
@@ -16733,39 +16716,39 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <v>2021</v>
       </c>
@@ -17497,19 +17480,19 @@
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="862" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="6" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="861" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="7" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="860" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="8" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="859" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="9" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="858" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="10" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17585,8 +17568,8 @@
   </sheetPr>
   <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17611,34 +17594,34 @@
       <c r="C2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -17647,39 +17630,39 @@
       <c r="B4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -18800,24 +18783,24 @@
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="H2:K2"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C7:AG23">
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18893,7 +18876,7 @@
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" zoomScale="68" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18914,28 +18897,28 @@
     <row r="2" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -18944,39 +18927,39 @@
       <c r="B4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -20171,19 +20154,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:AG24 C7:R24 T7:V24">
-    <cfRule type="expression" dxfId="154" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="8" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="9" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="10" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="11" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="12" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20207,19 +20190,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:S24">
-    <cfRule type="expression" dxfId="149" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="2" stopIfTrue="1">
       <formula>S7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="3" stopIfTrue="1">
       <formula>S7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="4" stopIfTrue="1">
       <formula>S7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="5" stopIfTrue="1">
       <formula>S7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="6" stopIfTrue="1">
       <formula>S7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20278,8 +20261,8 @@
   </sheetPr>
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20304,42 +20287,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -20348,39 +20331,39 @@
       <c r="B4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -20735,16 +20718,20 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
+      <c r="AE9" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="29">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -20775,16 +20762,20 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
+      <c r="AE10" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="29">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -20817,16 +20808,20 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
+      <c r="AE11" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="29">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -20957,16 +20952,20 @@
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
+      <c r="AA14" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
+      <c r="AE14" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -21296,9 +21295,7 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
@@ -21310,7 +21307,7 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -21347,16 +21344,20 @@
       </c>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
+      <c r="AA23" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
+      <c r="AE23" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1">
         <f>COUNTA(Декабрь[[#This Row],[1]:[31]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -21400,137 +21401,137 @@
       </c>
     </row>
     <row r="25" spans="2:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="39" t="str">
+      <c r="B25" s="36" t="str">
         <f>ИмяМесяца&amp;" Итог"</f>
         <v>Декабрь Итог</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="37">
         <f>SUBTOTAL(103,Декабрь[1])</f>
         <v>3</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="37">
         <f>SUBTOTAL(103,Декабрь[2])</f>
         <v>0</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="37">
         <f>SUBTOTAL(103,Декабрь[3])</f>
         <v>0</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="37">
         <f>SUBTOTAL(103,Декабрь[4])</f>
         <v>2</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="37">
         <f>SUBTOTAL(103,Декабрь[5])</f>
         <v>0</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="37">
         <f>SUBTOTAL(103,Декабрь[6])</f>
         <v>0</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="37">
         <f>SUBTOTAL(103,Декабрь[7])</f>
         <v>0</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="37">
         <f>SUBTOTAL(103,Декабрь[8])</f>
         <v>6</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="37">
         <f>SUBTOTAL(103,Декабрь[9])</f>
         <v>0</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="37">
         <f>SUBTOTAL(103,Декабрь[10])</f>
         <v>0</v>
       </c>
-      <c r="M25" s="40">
+      <c r="M25" s="37">
         <f>SUBTOTAL(103,Декабрь[11])</f>
         <v>3</v>
       </c>
-      <c r="N25" s="40">
+      <c r="N25" s="37">
         <f>SUBTOTAL(103,Декабрь[12])</f>
         <v>0</v>
       </c>
-      <c r="O25" s="40">
+      <c r="O25" s="37">
         <f>SUBTOTAL(103,Декабрь[13])</f>
         <v>0</v>
       </c>
-      <c r="P25" s="40">
+      <c r="P25" s="37">
         <f>SUBTOTAL(103,Декабрь[14])</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="40">
+      <c r="Q25" s="37">
         <f>SUBTOTAL(103,Декабрь[15])</f>
         <v>4</v>
       </c>
-      <c r="R25" s="40">
+      <c r="R25" s="37">
         <f>SUBTOTAL(103,Декабрь[16])</f>
         <v>0</v>
       </c>
-      <c r="S25" s="40">
+      <c r="S25" s="37">
         <f>SUBTOTAL(103,Декабрь[17])</f>
         <v>0</v>
       </c>
-      <c r="T25" s="40">
+      <c r="T25" s="37">
         <f>SUBTOTAL(103,Декабрь[18])</f>
         <v>5</v>
       </c>
-      <c r="U25" s="40">
+      <c r="U25" s="37">
         <f>SUBTOTAL(103,Декабрь[19])</f>
         <v>0</v>
       </c>
-      <c r="V25" s="40">
+      <c r="V25" s="37">
         <f>SUBTOTAL(103,Декабрь[20])</f>
         <v>0</v>
       </c>
-      <c r="W25" s="40">
+      <c r="W25" s="37">
         <f>SUBTOTAL(103,Декабрь[21])</f>
         <v>0</v>
       </c>
-      <c r="X25" s="40">
+      <c r="X25" s="37">
         <f>SUBTOTAL(103,Декабрь[22])</f>
-        <v>9</v>
-      </c>
-      <c r="Y25" s="40">
+        <v>8</v>
+      </c>
+      <c r="Y25" s="37">
         <f>SUBTOTAL(103,Декабрь[23])</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="40">
+      <c r="Z25" s="37">
         <f>SUBTOTAL(103,Декабрь[24])</f>
         <v>0</v>
       </c>
-      <c r="AA25" s="40">
+      <c r="AA25" s="37">
         <f>SUBTOTAL(103,Декабрь[25])</f>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="40">
+        <v>5</v>
+      </c>
+      <c r="AB25" s="37">
         <f>SUBTOTAL(103,Декабрь[26])</f>
         <v>0</v>
       </c>
-      <c r="AC25" s="40">
+      <c r="AC25" s="37">
         <f>SUBTOTAL(103,Декабрь[27])</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="40">
+      <c r="AD25" s="37">
         <f>SUBTOTAL(103,Декабрь[28])</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="40">
+      <c r="AE25" s="37">
         <f>SUBTOTAL(103,Декабрь[29])</f>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="40">
+        <v>5</v>
+      </c>
+      <c r="AF25" s="37">
         <f>SUBTOTAL(103,Декабрь[30])</f>
         <v>0</v>
       </c>
-      <c r="AG25" s="40">
+      <c r="AG25" s="37">
         <f>SUBTOTAL(103,Декабрь[31])</f>
         <v>0</v>
       </c>
-      <c r="AH25" s="41">
+      <c r="AH25" s="38">
         <f>SUBTOTAL(109,Декабрь[Всего дней])</f>
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -21542,25 +21543,25 @@
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="H2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="X7:AG24 C7:V24">
+  <conditionalFormatting sqref="C7:V24 X7:AG24">
     <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X7:AG24 C7:V24">
-    <cfRule type="expression" dxfId="75" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="C7:V24 X7:AG24">
+    <cfRule type="expression" dxfId="37" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21787,42 +21788,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3"/>
@@ -21831,39 +21832,39 @@
       <c r="B4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -22471,14 +22472,14 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="AE6">
-    <cfRule type="expression" dxfId="789" priority="16">
+    <cfRule type="expression" dxfId="94" priority="16">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5">
-    <cfRule type="expression" dxfId="788" priority="15">
+    <cfRule type="expression" dxfId="93" priority="15">
       <formula>MONTH(DATE(ГодКалендаря,2,29))&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22486,21 +22487,21 @@
     <cfRule type="expression" priority="2" stopIfTrue="1">
       <formula>C7=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="787" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="786" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="5" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="785" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="6" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="7" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="783" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="8" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22609,42 +22610,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -22653,39 +22654,39 @@
       <c r="B4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -23269,19 +23270,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="713" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="711" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="710" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23388,42 +23389,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -23432,39 +23433,39 @@
       <c r="B4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -24045,19 +24046,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="639" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24164,42 +24165,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -24208,39 +24209,39 @@
       <c r="B4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -24824,19 +24825,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="565" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24943,42 +24944,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -24987,39 +24988,39 @@
       <c r="B4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -25600,19 +25601,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="491" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25719,42 +25720,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -25763,39 +25764,39 @@
       <c r="B4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -26379,19 +26380,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="417" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26498,42 +26499,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -26542,39 +26543,39 @@
       <c r="B4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -27158,19 +27159,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="343" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27277,42 +27278,42 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
     </row>
     <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -27321,39 +27322,39 @@
       <c r="B4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="11">
         <f>ГодКалендаря</f>
         <v>2021</v>
@@ -27934,19 +27935,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:AG11">
-    <cfRule type="expression" dxfId="269" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="2" stopIfTrue="1">
       <formula>C7=СобствОбозн2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="3" stopIfTrue="1">
       <formula>C7=СобствОбозн1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="4" stopIfTrue="1">
       <formula>C7=ОбознБольничн</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="5" stopIfTrue="1">
       <formula>C7=ОбознЛичнОбст</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="6" stopIfTrue="1">
       <formula>C7=ОбознОтпуск</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Посещаемость/Октябрь.xlsx
+++ b/Посещаемость/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -16688,8 +16688,8 @@
   </sheetPr>
   <dimension ref="A1:AH24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17137,7 +17137,9 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="U9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -17152,7 +17154,7 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="29">
         <f>COUNTA(Январь!$C9:$AG9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -17299,7 +17301,9 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
+      <c r="U13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -17314,7 +17318,7 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1">
         <f>COUNTA(Январь!$C13:$AG13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -17343,7 +17347,9 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="U14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -17358,7 +17364,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1">
         <f>COUNTA(Январь!$C14:$AG14)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -17593,7 +17599,9 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
+      <c r="U20" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -17608,7 +17616,7 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1">
         <f>COUNTA(Январь!$C20:$AG20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -17810,7 +17818,7 @@
       </c>
       <c r="U24" s="25">
         <f>SUBTOTAL(103,Январь!$U$7:$U$23)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V24" s="25">
         <f>SUBTOTAL(103,Январь!$V$7:$V$23)</f>
@@ -17862,7 +17870,7 @@
       </c>
       <c r="AH24" s="26">
         <f>SUBTOTAL(109,Январь[Всего дней])</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -18418,7 +18426,7 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="29">
         <f>COUNTA(Январь!$C9:$AG9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -18586,7 +18594,7 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1">
         <f>COUNTA(Январь!$C13:$AG13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -18630,7 +18638,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1">
         <f>COUNTA(Январь!$C14:$AG14)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -18878,7 +18886,7 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1">
         <f>COUNTA(Январь!$C20:$AG20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19169,7 +19177,7 @@
       </c>
       <c r="AH26" s="26">
         <f>SUBTOTAL(109,Октябрь[Всего дней])</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Посещаемость/Октябрь.xlsx
+++ b/Посещаемость/Октябрь.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="90">
   <si>
     <t>Обозначение причины отсутствия</t>
   </si>
@@ -16689,7 +16689,7 @@
   <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17052,7 +17052,9 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
+      <c r="X7" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
@@ -17064,7 +17066,7 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="29">
         <f>COUNTA(Январь!$C7:$AG7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -17352,7 +17354,9 @@
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
+      <c r="X14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
@@ -17364,7 +17368,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1">
         <f>COUNTA(Январь!$C14:$AG14)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -17562,7 +17566,9 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
+      <c r="X19" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
@@ -17574,7 +17580,7 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1">
         <f>COUNTA(Январь!$C19:$AG19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -17830,7 +17836,7 @@
       </c>
       <c r="X24" s="25">
         <f>SUBTOTAL(103,Январь!$X$7:$X$23)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y24" s="25">
         <f>SUBTOTAL(103,Январь!$Y$7:$Y$23)</f>
@@ -17870,7 +17876,7 @@
       </c>
       <c r="AH24" s="26">
         <f>SUBTOTAL(109,Январь[Всего дней])</f>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -18340,7 +18346,7 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="29">
         <f>COUNTA(Январь!$C7:$AG7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -18638,7 +18644,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1">
         <f>COUNTA(Январь!$C14:$AG14)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -18842,7 +18848,7 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1">
         <f>COUNTA(Январь!$C19:$AG19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19177,7 +19183,7 @@
       </c>
       <c r="AH26" s="26">
         <f>SUBTOTAL(109,Октябрь[Всего дней])</f>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
